--- a/src/Resources/vrcholy.xlsx
+++ b/src/Resources/vrcholy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\VŠ\4.rocnik\Projekt\projekt\TurnusyGUI\src\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\FRI\Ing\2. semester\Projekt 2\TurnusyGUI\src\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A2A931-E6D9-456C-BF02-2804CC66EA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A486FF3F-B09E-4223-AECE-EFA3A2035CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="475">
   <si>
     <t>zast_id</t>
   </si>
@@ -47,1420 +47,1417 @@
     <t>lat</t>
   </si>
   <si>
-    <t>BanskĂˇ Bystrica,,AS</t>
-  </si>
-  <si>
-    <t>BanskĂˇ Bystrica,,StriebornĂ© nĂˇm.</t>
-  </si>
-  <si>
-    <t>BanskĂˇ Bystrica,UÄľanka</t>
-  </si>
-  <si>
-    <t>BanskĂˇ Bystrica,,NĂˇm.H.VajanskĂ©ho</t>
-  </si>
-  <si>
-    <t>Donovaly,,Pod Magurou-ATC</t>
-  </si>
-  <si>
-    <t>Donovaly,,centrum</t>
-  </si>
-  <si>
-    <t>MotyÄŤky</t>
-  </si>
-  <si>
-    <t>MotyÄŤky,Jergaly,SliaÄŤany</t>
-  </si>
-  <si>
-    <t>StarĂ© Hory,,OcĂš</t>
-  </si>
-  <si>
-    <t>StarĂ© Hory,DolnĂ˝ Jelenec</t>
-  </si>
-  <si>
-    <t>StarĂ© Hory,,kaplnka</t>
-  </si>
-  <si>
-    <t>BeĹ?adikovĂˇ,,PD</t>
-  </si>
-  <si>
-    <t>BeĹ?adikovĂˇ,,kult.dom</t>
-  </si>
-  <si>
-    <t>BeĹ?adikovĂˇ,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Lipt.Beharovce,,BenĂ­ky rĂˇzc.</t>
-  </si>
-  <si>
-    <t>BeĹˇeĹ?ovĂˇ,,Jednota</t>
-  </si>
-  <si>
-    <t>BeĹˇeĹ?ovĂˇ,,hotel Sumit</t>
-  </si>
-  <si>
-    <t>IvachnovĂˇ,,lazy rĂˇzc.</t>
-  </si>
-  <si>
-    <t>IvachnovĂˇ,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>BobrovÄŤek,,OcĂš</t>
-  </si>
-  <si>
-    <t>Bobrovec,,Huraj</t>
-  </si>
-  <si>
-    <t>Bobrovec,,OcĂš</t>
-  </si>
-  <si>
-    <t>Bobrovec,,Rakovica</t>
-  </si>
-  <si>
-    <t>Bobrovec,,Ĺ korupovo</t>
-  </si>
-  <si>
-    <t>Bobrovec,,ZĹ </t>
-  </si>
-  <si>
-    <t>Bobrovec,,poĹˇta</t>
-  </si>
-  <si>
-    <t>Bobrovec,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Jalovec,,BobroveckĂˇ vĂˇpenica</t>
-  </si>
-  <si>
-    <t>BobrovnĂ­k,HlinĂ­k,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>BobrovnĂ­k,,Jednota otoÄŤ.</t>
-  </si>
-  <si>
-    <t>BobrovnĂ­k,,Ĺ M bytovky</t>
-  </si>
-  <si>
-    <t>BobrovnĂ­k,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Bukovina,,kult.dom</t>
-  </si>
-  <si>
-    <t>Bukovina,,polesie</t>
-  </si>
-  <si>
-    <t>DemĂ¤novskĂˇ Dolina,,JaskyĹ?a Slobody</t>
-  </si>
-  <si>
-    <t>DemĂ¤novskĂˇ Dolina,,JasnĂˇ</t>
-  </si>
-  <si>
-    <t>DemĂ¤novskĂˇ Dolina,,Ä˝adovĂˇ jaskyĹ?a</t>
-  </si>
-  <si>
-    <t>DemĂ¤novskĂˇ Dolina,,LĂşÄŤky</t>
-  </si>
-  <si>
-    <t>DemĂ¤novskĂˇ Dolina,,Chaty</t>
-  </si>
-  <si>
-    <t>DemĂ¤novskĂˇ Dolina,,ZĂˇhradky</t>
-  </si>
-  <si>
-    <t>DemĂ¤novskĂˇ Dolina,,autocamp.</t>
-  </si>
-  <si>
-    <t>DĂşbrava,,Dom sluĹľ.</t>
-  </si>
-  <si>
-    <t>DĂşbrava,,RaJ BanĂ­k</t>
-  </si>
-  <si>
-    <t>DemĂ¤novskĂˇ Dolina,,StarĂ© koliesko</t>
-  </si>
-  <si>
-    <t>DĂşbrava,,zĂˇvod</t>
-  </si>
-  <si>
-    <t>Galovany,,ÄŤ.d.1</t>
-  </si>
-  <si>
-    <t>Galovany,,ÄŤ.d.51</t>
-  </si>
-  <si>
-    <t>Galovany,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>GĂ´tovany,,BenickĂ˝</t>
-  </si>
-  <si>
-    <t>GĂ´tovany,,OcĂš</t>
-  </si>
-  <si>
-    <t>GĂ´tovany,,Piatko</t>
-  </si>
-  <si>
-    <t>GĂ´tovany,,SEZ rozvodĹ?a L.Mara</t>
-  </si>
-  <si>
-    <t>GĂ´tovany,,VyĹˇnĂ© rĂˇzc.</t>
-  </si>
-  <si>
-    <t>GĂ´tovany,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Huty,,JavorinskĂ˝ potok</t>
-  </si>
-  <si>
-    <t>Huty,,Pod sklenĂ˝m vĹ•Ĺˇkom</t>
-  </si>
-  <si>
-    <t>Huty,,Ĺ kumat stred</t>
-  </si>
-  <si>
-    <t>Huty,,ZĹ </t>
-  </si>
-  <si>
-    <t>Huty,,rĂˇzc.na MalĂ© BorovĂ©</t>
-  </si>
-  <si>
-    <t>Huty,,rĂˇzc.na VeÄľkĂ© BorovĂ©</t>
-  </si>
-  <si>
-    <t>Hybe,,LehotskĂ˝ Adam</t>
-  </si>
-  <si>
-    <t>Lipt.TeplĂˇ,MadoÄŤany,RENOP</t>
-  </si>
-  <si>
-    <t>Hybe,,motel</t>
-  </si>
-  <si>
-    <t>Hybe,,nĂˇm.</t>
-  </si>
-  <si>
-    <t>Hybe,,otoÄŤ.</t>
-  </si>
-  <si>
-    <t>Hybe,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,,trĹľnica</t>
-  </si>
-  <si>
-    <t>IĹľipovce</t>
-  </si>
-  <si>
-    <t>Jakubovany,,HrÄŤa</t>
-  </si>
-  <si>
-    <t>Jakubovany,,KuchĂˇrik</t>
-  </si>
-  <si>
-    <t>Jalovec,,ZĹ </t>
-  </si>
-  <si>
-    <t>Jalovec,,most</t>
-  </si>
-  <si>
-    <t>JamnĂ­k,,RD otoÄŤ.</t>
-  </si>
-  <si>
-    <t>KrĂˇÄľova Lehota,,CestnĂ© stavby obal.</t>
-  </si>
-  <si>
-    <t>KrĂˇÄľova Lehota,,Jednota</t>
-  </si>
-  <si>
-    <t>KrĂˇÄľova Lehota,,Preglejka</t>
-  </si>
-  <si>
-    <t>KrĂˇÄľova Lehota,,Ĺľel.st.</t>
-  </si>
-  <si>
-    <t>KvaÄŤany,DlhĂˇ LĂşka</t>
-  </si>
-  <si>
-    <t>KvaÄŤany,,RD</t>
-  </si>
-  <si>
-    <t>KvaÄŤany,,ZĹ </t>
-  </si>
-  <si>
-    <t>Lazisko,,Droppa</t>
-  </si>
-  <si>
-    <t>Lipt.Anna,,Jednota</t>
-  </si>
-  <si>
-    <t>Lipt.Anna,,garĂˇĹľ SAD</t>
-  </si>
-  <si>
-    <t>Lipt.Kokava,,Oravec</t>
-  </si>
-  <si>
-    <t>Lipt.Kokava,,RD</t>
-  </si>
-  <si>
-    <t>Lipt.Kokava,,obch.dom</t>
-  </si>
-  <si>
-    <t>Lipt.Kokava,,poĹľ.zbroj.</t>
-  </si>
-  <si>
-    <t>Lipt.Sielnica,,PS</t>
-  </si>
-  <si>
-    <t>Lipt.Sielnica,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Lipt.TeplĂˇ,,Ĺ L</t>
-  </si>
-  <si>
-    <t>Lipt.TeplĂˇ,,nĂˇm.</t>
-  </si>
-  <si>
-    <t>Lipt.TeplĂˇ,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Lipt.TeplĂˇ,,Ĺľel.st.</t>
-  </si>
-  <si>
-    <t>Potok,,OcĂš</t>
-  </si>
-  <si>
-    <t>Potok,,u Ĺ˝iaka 44</t>
-  </si>
-  <si>
-    <t>Lipt.MatiaĹˇovce,,SSC</t>
-  </si>
-  <si>
-    <t>Lipt.Beharovce,,BenĂ­kovskĂ˝</t>
-  </si>
-  <si>
-    <t>Lipt.KÄľaÄŤany,,garĂˇĹľ SAD</t>
-  </si>
-  <si>
-    <t>Lipt.KÄľaÄŤany,,kostol</t>
-  </si>
-  <si>
-    <t>Lipt.KÄľaÄŤany,,samota</t>
-  </si>
-  <si>
-    <t>Lipt.MatiaĹˇovce,VyĹˇnĂ© MatiaĹˇovce</t>
-  </si>
-  <si>
-    <t>Lipt.MatiaĹˇovce,,poĹľ.zbroj.</t>
-  </si>
-  <si>
-    <t>Lipt.MatiaĹˇovce,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>PodtureĹ?,RoveĹ?</t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,Dovalovo,PetrĂˇĹˇko</t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,Dovalovo,ÄŤ.d.433</t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,Dovalovo,pomnĂ­k</t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,,JĂˇnoĹˇkov domov</t>
-  </si>
-  <si>
-    <t>Lipt.Peter,,RD</t>
-  </si>
-  <si>
-    <t>Lipt.Peter,,Bytovky</t>
-  </si>
-  <si>
-    <t>Lipt.Peter,,pomnĂ­k</t>
-  </si>
-  <si>
-    <t>Lipt.Peter,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,,MaĹˇa</t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,,Pod skalou</t>
-  </si>
-  <si>
-    <t>Lipt.PorĂşbka,,ChomovĂˇ</t>
-  </si>
-  <si>
-    <t>Lipt.PorĂşbka,,Kubek</t>
-  </si>
-  <si>
-    <t>Lipt.PorĂşbka,,pri moste</t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,,RepÄŤek</t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,,SokolovĹ?a</t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,,ZĹ </t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,,Tesla</t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,,cint.</t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,,Ĺľel.st.</t>
-  </si>
-  <si>
-    <t>Lipt.JĂˇn,,Jednota</t>
-  </si>
-  <si>
-    <t>Lipt.JĂˇn,,ZĹ </t>
-  </si>
-  <si>
-    <t>UhorskĂˇ Ves,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Lipt.JĂˇn,,zot.ÄŽumbier</t>
-  </si>
-  <si>
-    <t>Lipt.Michal,,Jednota</t>
-  </si>
-  <si>
-    <t>Lipt.Michal,,otoÄŤ.</t>
-  </si>
-  <si>
-    <t>Lipt.Michal,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,Andice,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,Andice,HĂˇÄŤik</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,Benice,GoreckĂ˝</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,Benice,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,centrum</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,DemĂ¤novĂˇ,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>DĂşbrava,,otoÄŤ.Ĺ M</t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,,SOUE</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,KomenskĂ©ho ul.MĹ </t>
-  </si>
-  <si>
-    <t>VeÄľkĂ© BorovĂ©,,Jednota</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,ul.RevoluÄŤnĂˇ Lidl</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,OSP</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,lekĂˇreĹ?</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,StoĹˇice,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,OkoliÄŤnĂ©,ZĹ </t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,OkoliÄŤnĂ©,otoÄŤ.</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,PalĂşdzka,LAS</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,PalĂşdzka,ZĹ </t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,PalĂşdzka,nem.</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,Podbreziny</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,VitĂˇliĹˇovce</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,LIDL</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,hotel JĂˇnoĹˇĂ­k</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,Lipt.mliekarne</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,STOP SHOP</t>
-  </si>
-  <si>
-    <t>KonskĂˇ,,ZĹ </t>
-  </si>
-  <si>
-    <t>KonskĂˇ,,hĂˇjenka</t>
-  </si>
-  <si>
-    <t>Lipt.Ondrej,,UliÄŤnĂ˝</t>
-  </si>
-  <si>
-    <t>Lipt.Ondrej,,betonĂˇrka</t>
-  </si>
-  <si>
-    <t>Lipt.Ondrej,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Lipt.Trnovec,,KrivĂ˝ kĂşt</t>
-  </si>
-  <si>
-    <t>Lipt.Trnovec,,ZĹ </t>
-  </si>
-  <si>
-    <t>Lipt.Trnovec,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>MalatĂ­ny,,NiĹľnĂ©</t>
-  </si>
-  <si>
-    <t>MalatĂ­ny,,StrednĂ©</t>
-  </si>
-  <si>
-    <t>MalatĂ­ny,,VyĹˇnĂ©</t>
-  </si>
-  <si>
-    <t>MalatĂ­ny,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>JamnĂ­k,,MokraÄŹ</t>
-  </si>
-  <si>
-    <t>MalĂ© BorovĂ©</t>
-  </si>
-  <si>
-    <t>MalĂ© BorovĂ©,NovoĹĄ</t>
-  </si>
-  <si>
-    <t>MaluĹľinĂˇ,,Liptov</t>
-  </si>
-  <si>
-    <t>MaluĹľinĂˇ,,kult.dom</t>
-  </si>
-  <si>
-    <t>MaluĹľinĂˇ,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>KrĂˇÄľova Lehota,,Michalovo GaĹˇparĂ­k</t>
-  </si>
-  <si>
-    <t>NiĹľnĂˇ Boca,,ÄŚervenĂˇ Voda</t>
-  </si>
-  <si>
-    <t>NiĹľnĂˇ Boca,,ZĂˇhradnĂ­k</t>
-  </si>
-  <si>
-    <t>PartizĂˇnska Ä˝upÄŤa,,KostĂ´lok</t>
-  </si>
-  <si>
-    <t>PartizĂˇnska Ä˝upÄŤa,,Smitek</t>
-  </si>
-  <si>
-    <t>PartizĂˇnska Ä˝upÄŤa,,ÄŤ.d.253</t>
-  </si>
-  <si>
-    <t>PartizĂˇnska Ä˝upÄŤa,,kult.dom</t>
-  </si>
-  <si>
-    <t>PartizĂˇnska Ä˝upÄŤa,,otoÄŤ.Ĺ M</t>
-  </si>
-  <si>
-    <t>PartizĂˇnska Ä˝upÄŤa,,rĂˇzc.pri stĂ­nanĂ­</t>
-  </si>
-  <si>
-    <t>Pavlova Ves,,kult.dom</t>
-  </si>
-  <si>
-    <t>PavÄŤina Lehota,,Hate</t>
-  </si>
-  <si>
-    <t>PavÄŤina Lehota,,garĂˇĹľ</t>
-  </si>
-  <si>
-    <t>PodtureĹ?,,Jednota</t>
-  </si>
-  <si>
-    <t>PodtureĹ?,,Ĺľel.zast.</t>
-  </si>
-  <si>
-    <t>Pribylina,,Hrdovo</t>
-  </si>
-  <si>
-    <t>Pribylina,,KamennĂˇ dol.</t>
-  </si>
-  <si>
-    <t>Pribylina,,KokavskĂ˝ most</t>
-  </si>
-  <si>
-    <t>Pribylina,,PotĂ´ÄŤky</t>
-  </si>
-  <si>
-    <t>Pribylina,,ZĹ </t>
-  </si>
-  <si>
-    <t>Pribylina,,garĂˇĹľ SAD</t>
-  </si>
-  <si>
-    <t>Pribylina,,poĹľ.zbroj.</t>
-  </si>
-  <si>
-    <t>Pribylina,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Prosiek,,ÄŤ.d.26</t>
-  </si>
-  <si>
-    <t>Prosiek,,garĂˇĹľ SAD</t>
-  </si>
-  <si>
-    <t>Prosiek,,otoÄŤ.</t>
-  </si>
-  <si>
-    <t>Prosiek,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>SmreÄŤany,,Ĺ irica</t>
-  </si>
-  <si>
-    <t>SmreÄŤany,,kostol</t>
-  </si>
-  <si>
-    <t>SmreÄŤany,,otoÄŤ.</t>
-  </si>
-  <si>
-    <t>NiĹľnĂˇ Boca,,Stred.Boca Herich</t>
-  </si>
-  <si>
-    <t>SvĂ¤tĂ˝ KrĂ­Ĺľ,,ObecnĂ˝ Ăşrad</t>
-  </si>
-  <si>
-    <t>SvĂ¤tĂ˝ KrĂ­Ĺľ,,CĂ­novisko</t>
-  </si>
-  <si>
-    <t>SvĂ¤tĂ˝ KrĂ­Ĺľ,,VyĹˇnĂ˝ koniec</t>
-  </si>
-  <si>
-    <t>SvĂ¤tĂ˝ KrĂ­Ĺľ,,ZĹ </t>
-  </si>
-  <si>
-    <t>SvĂ¤tĂ˝ KrĂ­Ĺľ,,ÄŤ.d.189</t>
-  </si>
-  <si>
-    <t>SvĂ¤tĂ˝ KrĂ­Ĺľ,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>MaluĹľinĂˇ,,Svidovo rĂˇzc.</t>
-  </si>
-  <si>
-    <t>TrstenĂ©,,otoÄŤ.</t>
-  </si>
-  <si>
-    <t>UhorskĂˇ Ves,,centrum</t>
-  </si>
-  <si>
-    <t>VavriĹˇovo,,OcĂš</t>
-  </si>
-  <si>
-    <t>VavriĹˇovo,,poĹľ.zbroj.</t>
-  </si>
-  <si>
-    <t>VavriĹˇovo,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>VaĹľec,,Jednota</t>
-  </si>
-  <si>
-    <t>VaĹľec,,Ĺľel.nadjazd</t>
-  </si>
-  <si>
-    <t>VeÄľkĂ© BorovĂ©,,RĂˇztoka</t>
-  </si>
-  <si>
-    <t>VeÄľkĂ© BorovĂ©,,Salaj</t>
-  </si>
-  <si>
-    <t>VeÄľkĂ© BorovĂ©,,Ĺ krlĂˇk</t>
-  </si>
-  <si>
-    <t>VeternĂˇ Poruba,,OcĂš</t>
-  </si>
-  <si>
-    <t>VeternĂˇ Poruba,,ÄŤ.d.5</t>
-  </si>
-  <si>
-    <t>Vlachy,,Jednota</t>
-  </si>
-  <si>
-    <t>Vlachy,KrmeĹˇ,Jednota</t>
-  </si>
-  <si>
-    <t>Vlachy,KrmeĹˇ,pri moste</t>
-  </si>
-  <si>
-    <t>Vlachy,VlaĹˇky,pri moste</t>
-  </si>
-  <si>
-    <t>Vlachy,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>VĂ˝chodnĂˇ,,Benzinol</t>
-  </si>
-  <si>
-    <t>VĂ˝chodnĂˇ,,Jednota</t>
-  </si>
-  <si>
-    <t>VĂ˝chodnĂˇ,,MurĂˇĹ?</t>
-  </si>
-  <si>
-    <t>VĂ˝chodnĂˇ,,NahĂˇlka</t>
-  </si>
-  <si>
-    <t>VĂ˝chodnĂˇ,,garĂˇĹľ SAD</t>
-  </si>
-  <si>
-    <t>VĂ˝chodnĂˇ,,rybnĂ­k</t>
-  </si>
-  <si>
-    <t>VĂ˝chodnĂˇ,,Ĺľel.st.</t>
-  </si>
-  <si>
-    <t>VyĹˇnĂˇ Boca,,ZĹ </t>
-  </si>
-  <si>
-    <t>VyĹˇnĂˇ Boca,,ZacharovskĂ˝</t>
-  </si>
-  <si>
-    <t>VyĹˇnĂˇ Boca,,chata Barbora</t>
-  </si>
-  <si>
-    <t>ZĂˇvaĹľnĂˇ Poruba,,Luhy</t>
-  </si>
-  <si>
-    <t>ZĂˇvaĹľnĂˇ Poruba,,otoÄŤ.</t>
-  </si>
-  <si>
-    <t>Ĺ˝iar,,JurĂˇĹˇ</t>
-  </si>
-  <si>
-    <t>Ĺ˝iar,,cint.</t>
-  </si>
-  <si>
-    <t>Ĺ˝iar,,nocovĹ?a SAD</t>
-  </si>
-  <si>
-    <t>Ĺ˝iar,,rekr.str.</t>
-  </si>
-  <si>
-    <t>Ĺ˝iar,Ĺ˝iarska dolina</t>
-  </si>
-  <si>
-    <t>ÄŚertovica,,hotel Ĺ port</t>
-  </si>
-  <si>
-    <t>Ä˝ubeÄľa,,HumennĂ˝</t>
-  </si>
-  <si>
-    <t>Ä˝ubeÄľa,,Jednota</t>
-  </si>
-  <si>
-    <t>Ä˝ubeÄľa,,lekĂˇreĹ?</t>
-  </si>
-  <si>
-    <t>Ä˝ubeÄľa,,ZĹ </t>
-  </si>
-  <si>
-    <t>Ä˝ubeÄľa,,Na VĂˇhe</t>
-  </si>
-  <si>
-    <t>Ä˝ubeÄľa,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>DemĂ¤novskĂˇ Dolina,,centr.park.</t>
-  </si>
-  <si>
-    <t>Ä˝ubeÄľa,,Sihotka</t>
-  </si>
-  <si>
-    <t>Ratkovo,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Martin,,Hviezdoslavova ul.</t>
-  </si>
-  <si>
-    <t>Martin,KoĹˇĂşty,zdrav.str.</t>
-  </si>
-  <si>
-    <t>Martin,,Sever obch.dom</t>
-  </si>
-  <si>
-    <t>Martin,,ĹˇtadiĂłn</t>
-  </si>
-  <si>
-    <t>Martin,,OĂšNZ</t>
-  </si>
-  <si>
-    <t>Martin,,ul.A.Pietra</t>
-  </si>
-  <si>
-    <t>Martin,,aut.st.</t>
-  </si>
-  <si>
-    <t>Ratkovo</t>
-  </si>
-  <si>
-    <t>SuÄŤany,,Dom potravĂ­n</t>
-  </si>
-  <si>
-    <t>SuÄŤany,,psych.lieÄŤebĹ?a</t>
-  </si>
-  <si>
-    <t>SuÄŤany,,rozvodĹ?a</t>
-  </si>
-  <si>
-    <t>Ĺ Ăştovo,,odb.k Ĺ Ăştov.vodopĂˇdom</t>
-  </si>
-  <si>
-    <t>Ĺ Ăştovo,,Rieka lom</t>
-  </si>
-  <si>
-    <t>Turany,,poĹˇta</t>
-  </si>
-  <si>
-    <t>Ĺ Ăştovo,,OcĂš</t>
-  </si>
-  <si>
-    <t>HubovĂˇ,,Babala</t>
-  </si>
-  <si>
-    <t>HubovĂˇ,,pri moste</t>
-  </si>
-  <si>
-    <t>Kalameny,,kult.dom</t>
-  </si>
-  <si>
-    <t>LĂşÄŤky,,rĂˇzc.Kalameny</t>
-  </si>
-  <si>
-    <t>KomjatnĂˇ,,Babic</t>
-  </si>
-  <si>
-    <t>KomjatnĂˇ,,Jednota</t>
-  </si>
-  <si>
-    <t>KomjatnĂˇ,,KoÄŤibal</t>
-  </si>
-  <si>
-    <t>KomjatnĂˇ,StudniÄŤnĂˇ</t>
-  </si>
-  <si>
-    <t>KomjatnĂˇ,,ZĹ </t>
-  </si>
-  <si>
-    <t>Likavka,,Dom dĂ´chodcov</t>
-  </si>
-  <si>
-    <t>Likavka,,Domiter</t>
-  </si>
-  <si>
-    <t>Likavka,,KlaÄŤko</t>
-  </si>
-  <si>
-    <t>Likavka,,KramariskĂˇ</t>
-  </si>
-  <si>
-    <t>Likavka,,NemÄŤek</t>
-  </si>
-  <si>
-    <t>Likavka,,hrad</t>
-  </si>
-  <si>
-    <t>Likavka,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Likavka,,sklad BZ-Texicom</t>
-  </si>
-  <si>
-    <t>Lipt.LĂşĹľna,,Brezniak</t>
-  </si>
-  <si>
-    <t>Lipt.LĂşĹľna,,Hronec</t>
-  </si>
-  <si>
-    <t>Lipt.LĂşĹľna,,Weiss</t>
-  </si>
-  <si>
-    <t>Lipt.LĂşĹľna,,MĹ </t>
-  </si>
-  <si>
-    <t>Lipt.LĂşĹľna,,bytovka RD</t>
-  </si>
-  <si>
-    <t>Lipt.LĂşĹľna,,mĂ¤sna u Vesel.</t>
-  </si>
-  <si>
-    <t>Lipt.LĂşĹľna,,nocovĹ?a SAD</t>
-  </si>
-  <si>
-    <t>Lipt.LĂşĹľna,,u TuronÄŤĂ­ka</t>
-  </si>
-  <si>
-    <t>Lipt.Osada,,Jednota</t>
-  </si>
-  <si>
-    <t>Lipt.Osada,Korytnica-kĂşpele,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>Lipt.Osada,Korytnica-kĂşpele</t>
-  </si>
-  <si>
-    <t>Lipt.Osada,,PatoÄŤiny horĂˇreĹ?</t>
-  </si>
-  <si>
-    <t>Lipt.Osada,,RD</t>
-  </si>
-  <si>
-    <t>Lipt.Osada,,Skalno</t>
-  </si>
-  <si>
-    <t>Lipt.Osada,,ÄŤ.d.113</t>
-  </si>
-  <si>
-    <t>Lipt.Ĺ tiavnica,,KÄľuÄŤiny</t>
-  </si>
-  <si>
-    <t>Lipt.Ĺ tiavnica,,garĂˇĹľ SAD</t>
-  </si>
-  <si>
-    <t>Lipt.Ĺ tiavnica,,otoÄŤ.</t>
-  </si>
-  <si>
-    <t>Lipt.SliaÄŤe,NiĹľnĂ˝ SliaÄŤ,BielenĂ˝</t>
-  </si>
-  <si>
-    <t>Lipt.SliaÄŤe,StrednĂ˝ SliaÄŤ,Dielnica</t>
-  </si>
-  <si>
-    <t>Lipt.SliaÄŤe,NiĹľnĂ˝ SliaÄŤ,SmiĹˇtĂ­k</t>
-  </si>
-  <si>
-    <t>Lipt.SliaÄŤe,NiĹľnĂ˝ SliaÄŤ,pri moste</t>
-  </si>
-  <si>
-    <t>Lipt.SliaÄŤe,StrednĂ˝ SliaÄŤ,GajdoĹˇ</t>
-  </si>
-  <si>
-    <t>Lipt.SliaÄŤe,StrednĂ˝ SliaÄŤ,kostol</t>
-  </si>
-  <si>
-    <t>Lipt.SliaÄŤe,StrednĂ˝ SliaÄŤ,ZĹ </t>
-  </si>
-  <si>
-    <t>Lipt.SliaÄŤe,StrednĂ˝ SliaÄŤ,otoÄŤ.</t>
-  </si>
-  <si>
-    <t>Lipt.SliaÄŤe,VyĹˇnĂ˝ SliaÄŤ,garĂˇĹľ</t>
-  </si>
-  <si>
-    <t>Lipt.SliaÄŤe,VyĹˇnĂ˝ SliaÄŤ,u Cabana</t>
-  </si>
-  <si>
-    <t>KomjatnĂˇ,,otoÄŤ.</t>
-  </si>
-  <si>
-    <t>Lipt.SliaÄŤe,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>TurĂ­k,,OcĂš</t>
-  </si>
-  <si>
-    <t>TurĂ­k,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>LiskovĂˇ,,kult.dom</t>
-  </si>
-  <si>
-    <t>LiskovĂˇ,,rĂˇzc.RD</t>
-  </si>
-  <si>
-    <t>Lipt.Osada,,BarborinĂˇ horĂˇreĹ?</t>
-  </si>
-  <si>
-    <t>Ä˝ubochĹ?a,,Korbelka</t>
-  </si>
-  <si>
-    <t>Ä˝ubochĹ?a</t>
-  </si>
-  <si>
-    <t>LĂşÄŤky,LĂşÄŤky-kĂşpele,otoÄŤ.</t>
-  </si>
-  <si>
-    <t>LĂşÄŤky,,zdrav.str.</t>
-  </si>
-  <si>
-    <t>LĂşÄŤky,,OcĂš</t>
-  </si>
-  <si>
-    <t>KomjatnĂˇ,,poĹľ.zbroj.</t>
-  </si>
-  <si>
-    <t>LudrovĂˇ,,Jednota</t>
-  </si>
-  <si>
-    <t>LudrovĂˇ,,RD</t>
-  </si>
-  <si>
-    <t>LudrovĂˇ,,ÄŤ.d.155</t>
-  </si>
-  <si>
-    <t>LudrovĂˇ,,ÄŤ.d.202</t>
-  </si>
-  <si>
-    <t>LudrovĂˇ,,ÄŤ.d.349</t>
-  </si>
-  <si>
-    <t>Lipt.Osada,,zdrav.str.</t>
-  </si>
-  <si>
-    <t>MartinÄŤek,,OcĂš</t>
-  </si>
-  <si>
-    <t>Ĺ tiavniÄŤka,,suĹˇiÄŤka RD</t>
-  </si>
-  <si>
-    <t>Ĺ tiavniÄŤka,,odboÄŤka LDCH</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,AS</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,Biely Potok,Bohunka</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,Biely Potok,Kovostav</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,Biely Potok,PodsuchĂˇ</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,Biely Potok,Slovpap</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,Biely Potok,pri moste</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,CelulĂłzka</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,ÄŚernovĂˇ,BystrĂˇ</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,ÄŚernovĂˇ,kolĂłnia</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,SOU poÄľnohospodĂˇrske</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,MladĂˇ generĂˇcia</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,NovĂˇ ÄŚernovĂˇ</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,Pod skalami</t>
-  </si>
-  <si>
-    <t>TurĂ­k,,RD</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,SPĹ </t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,Savoy</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,SihoĹĄ ZĹ </t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,Solo hornĂˇ brĂˇna</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,Supra</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,sĂ­dl.SNP</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,tehelĹ?a</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,VĂˇpenka</t>
-  </si>
-  <si>
-    <t>Stankovany,Rojkov</t>
-  </si>
-  <si>
-    <t>Stankovany,,pri moste</t>
-  </si>
-  <si>
-    <t>Ĺ tiavniÄŤka,,LDCH otoÄŤ.</t>
-  </si>
-  <si>
-    <t>Ĺ tiavniÄŤka,,MĹ </t>
-  </si>
-  <si>
-    <t>Ĺ tiavniÄŤka,,most</t>
-  </si>
-  <si>
-    <t>Lipt.Michal,,pod cintorĂ­nom</t>
-  </si>
-  <si>
-    <t>ValaskĂˇ DubovĂˇ,,OcĂš</t>
-  </si>
-  <si>
-    <t>ValaskĂˇ DubovĂˇ,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>ValaskĂˇ DubovĂˇ,,u DrobĂşÄľa</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,Ĺľel.st.</t>
-  </si>
-  <si>
-    <t>Lipt.TeplĂˇ,,Prefa</t>
-  </si>
-  <si>
-    <t>ÄŚertovica,,motorest</t>
-  </si>
-  <si>
-    <t>DolnĂ˝ KubĂ­n,,Alej slobody</t>
-  </si>
-  <si>
-    <t>DolnĂ˝ KubĂ­n,,SAD</t>
-  </si>
-  <si>
-    <t>DolnĂ˝ KubĂ­n,MokraÄŹ,priem.park</t>
-  </si>
-  <si>
-    <t>DolnĂ˝ KubĂ­n,,aut.st.</t>
-  </si>
-  <si>
-    <t>KraÄľovany,,Ĺľel.st.</t>
-  </si>
-  <si>
-    <t>VysokĂ© Tatry,NovĂˇ Polianka</t>
-  </si>
-  <si>
-    <t>Pribylina,,Zruby</t>
-  </si>
-  <si>
-    <t>VysokĂ© Tatry,PodbanskĂ©,ch.kpt.RaĹˇu</t>
-  </si>
-  <si>
-    <t>Poprad,,AS</t>
-  </si>
-  <si>
-    <t>VysokĂ© Tatry,StarĂ˝ Smokovec,aut.st.</t>
-  </si>
-  <si>
-    <t>Ĺ trba,Ĺ trbskĂ© Pleso,cen.park.</t>
-  </si>
-  <si>
-    <t>VysokĂ© Tatry,Tatr.Polianka</t>
-  </si>
-  <si>
-    <t>Bobrovec,,Luhy</t>
-  </si>
-  <si>
-    <t>KrĂˇÄľova Lehota,,Preglejka Ĺˇt.cesta</t>
-  </si>
-  <si>
-    <t>VysokĂ© Tatry,VyĹˇnĂ© HĂˇgy,rĂˇzc.k LĂš</t>
-  </si>
-  <si>
-    <t>JasenovĂˇ</t>
-  </si>
-  <si>
-    <t>VyĹˇnĂ˝ KubĂ­n,,rĂˇzc.</t>
-  </si>
-  <si>
-    <t>DolnĂ˝ KubĂ­n,,Banisko</t>
-  </si>
-  <si>
-    <t>DolnĂ˝ KubĂ­n,,SEZ</t>
-  </si>
-  <si>
-    <t>Pribylina,,Permon</t>
-  </si>
-  <si>
-    <t>DolnĂ˝ KubĂ­n,,MatĂşĹˇkova</t>
-  </si>
-  <si>
-    <t>DolnĂ˝ KubĂ­n,MokraÄŹ,Tech.sluĹľby</t>
-  </si>
-  <si>
-    <t>Lipt.Trnovec,,ATC</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,Lipt.OndraĹˇovĂˇ,kost.</t>
-  </si>
-  <si>
-    <t>ZĂˇvaĹľnĂˇ Poruba,,pri pomnĂ­ku</t>
-  </si>
-  <si>
-    <t>ZĂˇvaĹľnĂˇ Poruba,,kult.dom</t>
-  </si>
-  <si>
-    <t>ZĂˇvaĹľnĂˇ Poruba,,ul.p.HrĂˇdkom</t>
-  </si>
-  <si>
-    <t>Prosiek,ZĂˇdiel</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,ul.Hurbanova MĹ </t>
-  </si>
-  <si>
-    <t>Hybe,,rĂˇzc.na KrĂˇÄľovu Lehotu</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,AS</t>
-  </si>
-  <si>
-    <t>JamnĂ­k,,Jednota</t>
-  </si>
-  <si>
-    <t>Pribylina,,RaÄŤ.dol.rĂˇz.h.Esperanto</t>
-  </si>
-  <si>
-    <t>Lipt.RevĂşce,NiĹľnĂˇ RevĂşca,Jednota</t>
-  </si>
-  <si>
-    <t>Lipt.Ĺ tiavnica,,mlyn</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,Supra-vily</t>
-  </si>
-  <si>
-    <t>Lipt.SliaÄŤe,StrednĂ˝ SliaÄŤ,Dom smĂştku</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,Lipt.OndraĹˇovĂˇ,otoÄŤ.</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,Lipt.OndraĹˇovĂˇ,most</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,PalĂşdzka,ul.Palugyayho</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,DemĂ¤novĂˇ,mlynisko</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,Bodice,kostol</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,Bodice,Jednota</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,Podbreziny Juh</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,Podbreziny otoÄŤ.</t>
-  </si>
-  <si>
-    <t>KvaÄŤany,,SSC</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,Supra-stred</t>
-  </si>
-  <si>
-    <t>Lipt.RevĂşce,NiĹľnĂˇ RevĂşca,r.TeplĂ´</t>
-  </si>
-  <si>
-    <t>Lipt.RevĂşce,NiĹľnĂˇ RevĂşca,Rosa</t>
-  </si>
-  <si>
-    <t>Lipt.RevĂşce,StrednĂˇ RevĂşca,ZĹ </t>
-  </si>
-  <si>
-    <t>Lipt.RevĂşce,StrednĂˇ RevĂşca,Migra</t>
-  </si>
-  <si>
-    <t>Lipt.RevĂşce,StrednĂˇ RevĂşca,poĹľ.zbr.</t>
-  </si>
-  <si>
-    <t>Lipt.RevĂşce,StrednĂˇ RevĂşca,Vrbina</t>
-  </si>
-  <si>
-    <t>Lipt.RevĂşce,VyĹˇnĂˇ RevĂşca,PilnĂˇ</t>
-  </si>
-  <si>
-    <t>Lipt.RevĂşce,VyĹˇnĂˇ RevĂşca,Jednota</t>
-  </si>
-  <si>
-    <t>Lipt.Ĺ tiavnica,,pri kaplnke</t>
-  </si>
-  <si>
-    <t>KvaÄŤany,,garĂˇĹľ SAD</t>
-  </si>
-  <si>
-    <t>Lazisko,,garĂˇĹľ SAD</t>
-  </si>
-  <si>
-    <t>Lipt.SliaÄŤe,VyĹˇnĂ˝ SliaÄŤ,druĹľstvo</t>
-  </si>
-  <si>
-    <t>Lipt.MatiaĹˇovce,,kaplnka</t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,,Alcatel</t>
-  </si>
-  <si>
-    <t>Huty,,Dolinky</t>
-  </si>
-  <si>
-    <t>KomjatnĂˇ,StudniÄŤnĂˇ,PanskĂˇ lĂşka</t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,,most</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,JĂˇnoĹˇĂ­kovo nĂˇbr.</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,MoÄŤiare Voj.akad.</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,ul.Ĺ tĂşrova MsĂš</t>
-  </si>
-  <si>
-    <t>Stankovany,Rojkov,bar</t>
-  </si>
-  <si>
-    <t>Ĺ˝iar,,Dolinky</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,Aqua Park</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,Biely Potok,RaveĹ?</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,Biely Potok,Do Uhliska</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,Biely Potok,TrlenskĂˇ dolina</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,Biely Potok,NiĹľnĂ© MatejkovĂ©</t>
-  </si>
-  <si>
-    <t>LiskovĂˇ,,kriĹľ.</t>
-  </si>
-  <si>
-    <t>BanskĂˇ Bystrica,Jakub,NovĂ˝ Svet II.</t>
-  </si>
-  <si>
-    <t>BanskĂˇ Bystrica,,EUROPA SC</t>
-  </si>
-  <si>
-    <t>Lipt.JĂˇn,,hotel BystrĂˇ</t>
-  </si>
-  <si>
-    <t>Lipt.JĂˇn,,Alexandra Wellness Hotel</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,RoveĹ? PoÄľnĂˇ</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,RoveĹ? VojenskĂˇ nem.</t>
-  </si>
-  <si>
-    <t>Stankovany,,Strakov</t>
-  </si>
-  <si>
-    <t>Lipt.JĂˇn,,ul.StarojĂˇnska ZĹ </t>
-  </si>
-  <si>
-    <t>DemĂ¤novskĂˇ Dolina,,Wellness hotel Chopok</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,Rachmaninovo nĂˇm.</t>
-  </si>
-  <si>
-    <t>VeternĂˇ Poruba,,sklĂˇdka TKO</t>
-  </si>
-  <si>
-    <t>SvĂ¤tĂ˝ KrĂ­Ĺľ,,most</t>
-  </si>
-  <si>
-    <t>KomjatnĂˇ,,Pod StrĂˇĹ?ou</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,evanjelickĂ˝ kostol</t>
-  </si>
-  <si>
-    <t>RuĹľomberok,,NĂˇm. A.Hlinku</t>
-  </si>
-  <si>
-    <t>SmreÄŤany,,bytovky</t>
-  </si>
-  <si>
-    <t>Galovany,,kriĹľ.</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,St.NICOLAUS</t>
-  </si>
-  <si>
-    <t>BeĹˇeĹ?ovĂˇ,,SihoĹĄ</t>
-  </si>
-  <si>
-    <t>BeĹˇeĹ?ovĂˇ,,bytovka 109</t>
-  </si>
-  <si>
-    <t>Lipt.HrĂˇdok,,stavebniny</t>
-  </si>
-  <si>
-    <t>Lipt.MikulĂˇĹˇ,,ul.Ĺ tefĂˇnikova</t>
-  </si>
-  <si>
-    <t>LudrovĂˇ,,otoÄŤka</t>
-  </si>
-  <si>
-    <t>Lipt.Osada,,pekĂˇreĹ?</t>
-  </si>
-  <si>
-    <t>GarĂˇĹľ RK</t>
-  </si>
-  <si>
-    <t>GarĂˇĹľ LM</t>
+    <t>Banská Bystrica AS</t>
+  </si>
+  <si>
+    <t>Banská Bystrica,  Strieborné nám.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banská Bystrica, Uľanka </t>
+  </si>
+  <si>
+    <t>Banská Bystrica,  Nám.H.Vajanského</t>
+  </si>
+  <si>
+    <t>Donovaly,  Pod Magurou-ATC</t>
+  </si>
+  <si>
+    <t>Donovaly,  centrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motyčky,  </t>
+  </si>
+  <si>
+    <t>Motyčky, Jergaly Sliačany</t>
+  </si>
+  <si>
+    <t>Staré Hory,  OcÚ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staré Hory, Dolný Jelenec </t>
+  </si>
+  <si>
+    <t>Staré Hory,  kaplnka</t>
+  </si>
+  <si>
+    <t>Beňadiková,  PD</t>
+  </si>
+  <si>
+    <t>Beňadiková,  kult.dom</t>
+  </si>
+  <si>
+    <t>Beňadiková,  rázc.</t>
+  </si>
+  <si>
+    <t>Lipt.Beharovce,  Beníky rázc.</t>
+  </si>
+  <si>
+    <t>Bešeňová,  Jednota</t>
+  </si>
+  <si>
+    <t>Bešeňová,  hotel Sumit</t>
+  </si>
+  <si>
+    <t>Ivachnová,  lazy rázc.</t>
+  </si>
+  <si>
+    <t>Ivachnová,  rázc.</t>
+  </si>
+  <si>
+    <t>Bobrovček,  OcÚ</t>
+  </si>
+  <si>
+    <t>Bobrovec,  Huraj</t>
+  </si>
+  <si>
+    <t>Bobrovec,  OcÚ</t>
+  </si>
+  <si>
+    <t>Bobrovec,  Rakovica</t>
+  </si>
+  <si>
+    <t>Bobrovec,  Škorupovo</t>
+  </si>
+  <si>
+    <t>Bobrovec,  ZŠ</t>
+  </si>
+  <si>
+    <t>Bobrovec,  pošta</t>
+  </si>
+  <si>
+    <t>Bobrovec,  rázc.</t>
+  </si>
+  <si>
+    <t>Jalovec,  Bobrovecká vápenica</t>
+  </si>
+  <si>
+    <t>Bobrovník, Hliník rázc.</t>
+  </si>
+  <si>
+    <t>Bobrovník,  Jednota otoč.</t>
+  </si>
+  <si>
+    <t>Bobrovník,  ŠM bytovky</t>
+  </si>
+  <si>
+    <t>Bobrovník,  rázc.</t>
+  </si>
+  <si>
+    <t>Bukovina,  kult.dom</t>
+  </si>
+  <si>
+    <t>Bukovina,  polesie</t>
+  </si>
+  <si>
+    <t>Demänovská Dolina,  Jaskyňa Slobody</t>
+  </si>
+  <si>
+    <t>Demänovská Dolina,  Jasná</t>
+  </si>
+  <si>
+    <t>Demänovská Dolina,  Ľadová jaskyňa</t>
+  </si>
+  <si>
+    <t>Demänovská Dolina,  Lúčky</t>
+  </si>
+  <si>
+    <t>Demänovská Dolina,  Chaty</t>
+  </si>
+  <si>
+    <t>Demänovská Dolina,  Záhradky</t>
+  </si>
+  <si>
+    <t>Demänovská Dolina,  autocamp.</t>
+  </si>
+  <si>
+    <t>Dúbrava,  Dom služ.</t>
+  </si>
+  <si>
+    <t>Dúbrava,  RaJ Baník</t>
+  </si>
+  <si>
+    <t>Demänovská Dolina,  Staré koliesko</t>
+  </si>
+  <si>
+    <t>Dúbrava,  závod</t>
+  </si>
+  <si>
+    <t>Galovany,  č.d.1</t>
+  </si>
+  <si>
+    <t>Galovany,  č.d.51</t>
+  </si>
+  <si>
+    <t>Galovany,  rázc.</t>
+  </si>
+  <si>
+    <t>Gôtovany,  Benický</t>
+  </si>
+  <si>
+    <t>Gôtovany,  OcÚ</t>
+  </si>
+  <si>
+    <t>Gôtovany,  Piatko</t>
+  </si>
+  <si>
+    <t>Gôtovany,  SEZ rozvodňa L.Mara</t>
+  </si>
+  <si>
+    <t>Gôtovany,  Vyšné rázc.</t>
+  </si>
+  <si>
+    <t>Gôtovany,  rázc.</t>
+  </si>
+  <si>
+    <t>Huty,  Javorinský potok</t>
+  </si>
+  <si>
+    <t>Huty,  Pod skleným vŕškom</t>
+  </si>
+  <si>
+    <t>Huty,  Škumat stred</t>
+  </si>
+  <si>
+    <t>Huty,  ZŠ</t>
+  </si>
+  <si>
+    <t>Huty,  rázc.na Malé Borové</t>
+  </si>
+  <si>
+    <t>Huty,  rázc.na Veľké Borové</t>
+  </si>
+  <si>
+    <t>Hybe,  Lehotský Adam</t>
+  </si>
+  <si>
+    <t>Lipt.Teplá, Madočany RENOP</t>
+  </si>
+  <si>
+    <t>Hybe,  motel</t>
+  </si>
+  <si>
+    <t>Hybe,  nám.</t>
+  </si>
+  <si>
+    <t>Hybe,  otoč.</t>
+  </si>
+  <si>
+    <t>Hybe,  rázc.</t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok,  tržnica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ižipovce,  </t>
+  </si>
+  <si>
+    <t>Jakubovany,  Hrča</t>
+  </si>
+  <si>
+    <t>Jakubovany,  Kuchárik</t>
+  </si>
+  <si>
+    <t>Jalovec,  ZŠ</t>
+  </si>
+  <si>
+    <t>Jalovec,  most</t>
+  </si>
+  <si>
+    <t>Jamník,  RD otoč.</t>
+  </si>
+  <si>
+    <t>Kráľova Lehota,  Cestné stavby obal.</t>
+  </si>
+  <si>
+    <t>Kráľova Lehota,  Jednota</t>
+  </si>
+  <si>
+    <t>Kráľova Lehota,  Preglejka</t>
+  </si>
+  <si>
+    <t>Kráľova Lehota,  žel.st.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kvačany, Dlhá Lúka </t>
+  </si>
+  <si>
+    <t>Kvačany,  RD</t>
+  </si>
+  <si>
+    <t>Kvačany,  ZŠ</t>
+  </si>
+  <si>
+    <t>Lazisko,  Droppa</t>
+  </si>
+  <si>
+    <t>Lipt.Anna,  Jednota</t>
+  </si>
+  <si>
+    <t>Lipt.Anna,  garáž SAD</t>
+  </si>
+  <si>
+    <t>Lipt.Kokava,  Oravec</t>
+  </si>
+  <si>
+    <t>Lipt.Kokava,  RD</t>
+  </si>
+  <si>
+    <t>Lipt.Kokava,  obch.dom</t>
+  </si>
+  <si>
+    <t>Lipt.Kokava,  pož.zbroj.</t>
+  </si>
+  <si>
+    <t>Lipt.Sielnica,  PS</t>
+  </si>
+  <si>
+    <t>Lipt.Sielnica,  rázc.</t>
+  </si>
+  <si>
+    <t>Lipt.Teplá,  ŠL</t>
+  </si>
+  <si>
+    <t>Lipt.Teplá,  nám.</t>
+  </si>
+  <si>
+    <t>Lipt.Teplá,  rázc.</t>
+  </si>
+  <si>
+    <t>Lipt.Teplá,  žel.st.</t>
+  </si>
+  <si>
+    <t>Potok,  OcÚ</t>
+  </si>
+  <si>
+    <t>Potok,  u Žiaka 44</t>
+  </si>
+  <si>
+    <t>Lipt.Matiašovce,  SSC</t>
+  </si>
+  <si>
+    <t>Lipt.Beharovce,  Beníkovský</t>
+  </si>
+  <si>
+    <t>Lipt.Kľačany,  garáž SAD</t>
+  </si>
+  <si>
+    <t>Lipt.Kľačany,  kostol</t>
+  </si>
+  <si>
+    <t>Lipt.Kľačany,  samota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipt.Matiašovce, Vyšné Matiašovce </t>
+  </si>
+  <si>
+    <t>Lipt.Matiašovce,  pož.zbroj.</t>
+  </si>
+  <si>
+    <t>Lipt.Matiašovce,  rázc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podtureň, Roveň </t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok, Dovalovo Petráško</t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok, Dovalovo č.d.433</t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok, Dovalovo pomník</t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok,  Jánoškov domov</t>
+  </si>
+  <si>
+    <t>Lipt.Peter,  RD</t>
+  </si>
+  <si>
+    <t>Lipt.Peter,  Bytovky</t>
+  </si>
+  <si>
+    <t>Lipt.Peter,  pomník</t>
+  </si>
+  <si>
+    <t>Lipt.Peter,  rázc.</t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok,  Maša</t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok,  Pod skalou</t>
+  </si>
+  <si>
+    <t>Lipt.Porúbka,  Chomová</t>
+  </si>
+  <si>
+    <t>Lipt.Porúbka,  Kubek</t>
+  </si>
+  <si>
+    <t>Lipt.Porúbka,  pri moste</t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok,  Repček</t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok,  Sokolovňa</t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok,  ZŠ</t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok,  Tesla</t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok,  cint.</t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok,  žel.st.</t>
+  </si>
+  <si>
+    <t>Lipt.Ján,  Jednota</t>
+  </si>
+  <si>
+    <t>Lipt.Ján,  ZŠ</t>
+  </si>
+  <si>
+    <t>Uhorská Ves,  rázc.</t>
+  </si>
+  <si>
+    <t>Lipt.Ján,  zot.Ďumbier</t>
+  </si>
+  <si>
+    <t>Lipt.Michal,  Jednota</t>
+  </si>
+  <si>
+    <t>Lipt.Michal,  otoč.</t>
+  </si>
+  <si>
+    <t>Lipt.Michal,  rázc.</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Andice rázc.</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Andice Háčik</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Benice Gorecký</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Benice rázc.</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  centrum</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Demänová rázc.</t>
+  </si>
+  <si>
+    <t>Dúbrava,  otoč.ŠM</t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok,  SOUE</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  Komenského ul.MŠ</t>
+  </si>
+  <si>
+    <t>Veľké Borové,  Jednota</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  ul.Revolučná Lidl</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  OSP</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  lekáreň</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Stošice rázc.</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Okoličné ZŠ</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Okoličné otoč.</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Palúdzka LAS</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Palúdzka ZŠ</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Palúdzka nem.</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  Podbreziny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipt.Mikuláš, Vitálišovce </t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  LIDL</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  hotel Jánošík</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  Lipt.mliekarne</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  STOP SHOP</t>
+  </si>
+  <si>
+    <t>Konská,  ZŠ</t>
+  </si>
+  <si>
+    <t>Konská,  hájenka</t>
+  </si>
+  <si>
+    <t>Lipt.Ondrej,  Uličný</t>
+  </si>
+  <si>
+    <t>Lipt.Ondrej,  betonárka</t>
+  </si>
+  <si>
+    <t>Lipt.Ondrej,  rázc.</t>
+  </si>
+  <si>
+    <t>Lipt.Trnovec,  Krivý kút</t>
+  </si>
+  <si>
+    <t>Lipt.Trnovec,  ZŠ</t>
+  </si>
+  <si>
+    <t>Lipt.Trnovec,  rázc.</t>
+  </si>
+  <si>
+    <t>Malatíny,  Nižné</t>
+  </si>
+  <si>
+    <t>Malatíny,  Stredné</t>
+  </si>
+  <si>
+    <t>Malatíny,  Vyšné</t>
+  </si>
+  <si>
+    <t>Malatíny,  rázc.</t>
+  </si>
+  <si>
+    <t>Jamník,  Mokraď</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malé Borové,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malé Borové, Novoť </t>
+  </si>
+  <si>
+    <t>Malužiná,  Liptov</t>
+  </si>
+  <si>
+    <t>Malužiná,  kult.dom</t>
+  </si>
+  <si>
+    <t>Malužiná,  rázc.</t>
+  </si>
+  <si>
+    <t>Kráľova Lehota,  Michalovo Gašparík</t>
+  </si>
+  <si>
+    <t>Nižná Boca,  Červená Voda</t>
+  </si>
+  <si>
+    <t>Nižná Boca,  Záhradník</t>
+  </si>
+  <si>
+    <t>Partizánska Ľupča,  Kostôlok</t>
+  </si>
+  <si>
+    <t>Partizánska Ľupča,  Smitek</t>
+  </si>
+  <si>
+    <t>Partizánska Ľupča,  č.d.253</t>
+  </si>
+  <si>
+    <t>Partizánska Ľupča,  kult.dom</t>
+  </si>
+  <si>
+    <t>Partizánska Ľupča,  otoč.ŠM</t>
+  </si>
+  <si>
+    <t>Partizánska Ľupča,  rázc.pri stínaní</t>
+  </si>
+  <si>
+    <t>Pavlova Ves,  kult.dom</t>
+  </si>
+  <si>
+    <t>Pavčina Lehota,  Hate</t>
+  </si>
+  <si>
+    <t>Pavčina Lehota,  garáž</t>
+  </si>
+  <si>
+    <t>Podtureň,  Jednota</t>
+  </si>
+  <si>
+    <t>Podtureň,  žel.zast.</t>
+  </si>
+  <si>
+    <t>Pribylina,  Hrdovo</t>
+  </si>
+  <si>
+    <t>Pribylina,  Kamenná dol.</t>
+  </si>
+  <si>
+    <t>Pribylina,  Kokavský most</t>
+  </si>
+  <si>
+    <t>Pribylina,  Potôčky</t>
+  </si>
+  <si>
+    <t>Pribylina,  ZŠ</t>
+  </si>
+  <si>
+    <t>Pribylina,  garáž SAD</t>
+  </si>
+  <si>
+    <t>Pribylina,  pož.zbroj.</t>
+  </si>
+  <si>
+    <t>Pribylina,  rázc.</t>
+  </si>
+  <si>
+    <t>Prosiek,  č.d.26</t>
+  </si>
+  <si>
+    <t>Prosiek,  garáž SAD</t>
+  </si>
+  <si>
+    <t>Prosiek,  otoč.</t>
+  </si>
+  <si>
+    <t>Prosiek,  rázc.</t>
+  </si>
+  <si>
+    <t>Smrečany,  Širica</t>
+  </si>
+  <si>
+    <t>Smrečany,  kostol</t>
+  </si>
+  <si>
+    <t>Smrečany,  otoč.</t>
+  </si>
+  <si>
+    <t>Nižná Boca,  Stred.Boca Herich</t>
+  </si>
+  <si>
+    <t>Svätý Kríž,  Obecný úrad</t>
+  </si>
+  <si>
+    <t>Svätý Kríž,  Cínovisko</t>
+  </si>
+  <si>
+    <t>Svätý Kríž,  Vyšný koniec</t>
+  </si>
+  <si>
+    <t>Svätý Kríž,  ZŠ</t>
+  </si>
+  <si>
+    <t>Svätý Kríž,  č.d.189</t>
+  </si>
+  <si>
+    <t>Svätý Kríž,  rázc.</t>
+  </si>
+  <si>
+    <t>Malužiná,  Svidovo rázc.</t>
+  </si>
+  <si>
+    <t>Trstené,  otoč.</t>
+  </si>
+  <si>
+    <t>Uhorská Ves,  centrum</t>
+  </si>
+  <si>
+    <t>Vavrišovo,  OcÚ</t>
+  </si>
+  <si>
+    <t>Vavrišovo,  pož.zbroj.</t>
+  </si>
+  <si>
+    <t>Vavrišovo,  rázc.</t>
+  </si>
+  <si>
+    <t>Važec,  Jednota</t>
+  </si>
+  <si>
+    <t>Važec,  žel.nadjazd</t>
+  </si>
+  <si>
+    <t>Veľké Borové,  Ráztoka</t>
+  </si>
+  <si>
+    <t>Veľké Borové,  Salaj</t>
+  </si>
+  <si>
+    <t>Veľké Borové,  Škrlák</t>
+  </si>
+  <si>
+    <t>Veterná Poruba,  OcÚ</t>
+  </si>
+  <si>
+    <t>Veterná Poruba,  č.d.5</t>
+  </si>
+  <si>
+    <t>Vlachy,  Jednota</t>
+  </si>
+  <si>
+    <t>Vlachy, Krmeš Jednota</t>
+  </si>
+  <si>
+    <t>Vlachy, Krmeš pri moste</t>
+  </si>
+  <si>
+    <t>Vlachy, Vlašky pri moste</t>
+  </si>
+  <si>
+    <t>Vlachy,  rázc.</t>
+  </si>
+  <si>
+    <t>Východná,  Benzinol</t>
+  </si>
+  <si>
+    <t>Východná,  Jednota</t>
+  </si>
+  <si>
+    <t>Východná,  Muráň</t>
+  </si>
+  <si>
+    <t>Východná,  Nahálka</t>
+  </si>
+  <si>
+    <t>Východná,  garáž SAD</t>
+  </si>
+  <si>
+    <t>Východná,  rybník</t>
+  </si>
+  <si>
+    <t>Východná,  žel.st.</t>
+  </si>
+  <si>
+    <t>Vyšná Boca,  ZŠ</t>
+  </si>
+  <si>
+    <t>Vyšná Boca,  Zacharovský</t>
+  </si>
+  <si>
+    <t>Vyšná Boca,  chata Barbora</t>
+  </si>
+  <si>
+    <t>Závažná Poruba,  Luhy</t>
+  </si>
+  <si>
+    <t>Závažná Poruba,  otoč.</t>
+  </si>
+  <si>
+    <t>Žiar,  Juráš</t>
+  </si>
+  <si>
+    <t>Žiar,  cint.</t>
+  </si>
+  <si>
+    <t>Žiar,  nocovňa SAD</t>
+  </si>
+  <si>
+    <t>Žiar,  rekr.str.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Žiar, Žiarska dolina </t>
+  </si>
+  <si>
+    <t>Čertovica,  hotel Šport</t>
+  </si>
+  <si>
+    <t>Ľubeľa,  Humenný</t>
+  </si>
+  <si>
+    <t>Ľubeľa,  Jednota</t>
+  </si>
+  <si>
+    <t>Ľubeľa,  lekáreň</t>
+  </si>
+  <si>
+    <t>Ľubeľa,  ZŠ</t>
+  </si>
+  <si>
+    <t>Ľubeľa,  Na Váhe</t>
+  </si>
+  <si>
+    <t>Ľubeľa,  rázc.</t>
+  </si>
+  <si>
+    <t>Demänovská Dolina,  centr.park.</t>
+  </si>
+  <si>
+    <t>Ľubeľa,  Sihotka</t>
+  </si>
+  <si>
+    <t>Ratkovo,  rázc.</t>
+  </si>
+  <si>
+    <t>Martin,  Hviezdoslavova ul.</t>
+  </si>
+  <si>
+    <t>Martin, Košúty zdrav.str.</t>
+  </si>
+  <si>
+    <t>Martin,  Sever obch.dom</t>
+  </si>
+  <si>
+    <t>Martin,  štadión</t>
+  </si>
+  <si>
+    <t>Martin,  OÚNZ</t>
+  </si>
+  <si>
+    <t>Martin,  ul.A.Pietra</t>
+  </si>
+  <si>
+    <t>Martin,  aut.st.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratkovo,  </t>
+  </si>
+  <si>
+    <t>Sučany,  Dom potravín</t>
+  </si>
+  <si>
+    <t>Sučany,  psych.liečebňa</t>
+  </si>
+  <si>
+    <t>Sučany,  rozvodňa</t>
+  </si>
+  <si>
+    <t>Šútovo,  odb.k Šútov.vodopádom</t>
+  </si>
+  <si>
+    <t>Šútovo,  Rieka lom</t>
+  </si>
+  <si>
+    <t>Turany,  pošta</t>
+  </si>
+  <si>
+    <t>Šútovo,  OcÚ</t>
+  </si>
+  <si>
+    <t>Hubová,  Babala</t>
+  </si>
+  <si>
+    <t>Hubová,  pri moste</t>
+  </si>
+  <si>
+    <t>Kalameny,  kult.dom</t>
+  </si>
+  <si>
+    <t>Lúčky,  rázc.Kalameny</t>
+  </si>
+  <si>
+    <t>Komjatná,  Babic</t>
+  </si>
+  <si>
+    <t>Komjatná,  Jednota</t>
+  </si>
+  <si>
+    <t>Komjatná,  Kočibal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komjatná, Studničná </t>
+  </si>
+  <si>
+    <t>Komjatná,  ZŠ</t>
+  </si>
+  <si>
+    <t>Likavka,  Dom dôchodcov</t>
+  </si>
+  <si>
+    <t>Likavka,  Domiter</t>
+  </si>
+  <si>
+    <t>Likavka,  Klačko</t>
+  </si>
+  <si>
+    <t>Likavka,  Kramariská</t>
+  </si>
+  <si>
+    <t>Likavka,  Nemček</t>
+  </si>
+  <si>
+    <t>Likavka,  hrad</t>
+  </si>
+  <si>
+    <t>Likavka,  rázc.</t>
+  </si>
+  <si>
+    <t>Likavka,  sklad BZ-Texicom</t>
+  </si>
+  <si>
+    <t>Lipt.Lúžna,  Brezniak</t>
+  </si>
+  <si>
+    <t>Lipt.Lúžna,  Hronec</t>
+  </si>
+  <si>
+    <t>Lipt.Lúžna,  Weiss</t>
+  </si>
+  <si>
+    <t>Lipt.Lúžna,  MŠ</t>
+  </si>
+  <si>
+    <t>Lipt.Lúžna,  bytovka RD</t>
+  </si>
+  <si>
+    <t>Lipt.Lúžna,  mäsna u Vesel.</t>
+  </si>
+  <si>
+    <t>Lipt.Lúžna,  nocovňa SAD</t>
+  </si>
+  <si>
+    <t>Lipt.Lúžna,  u Turončíka</t>
+  </si>
+  <si>
+    <t>Lipt.Osada,  Jednota</t>
+  </si>
+  <si>
+    <t>Lipt.Osada, Korytnica-kúpele rázc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipt.Osada, Korytnica-kúpele </t>
+  </si>
+  <si>
+    <t>Lipt.Osada,  Patočiny horáreň</t>
+  </si>
+  <si>
+    <t>Lipt.Osada,  RD</t>
+  </si>
+  <si>
+    <t>Lipt.Osada,  Skalno</t>
+  </si>
+  <si>
+    <t>Lipt.Osada,  č.d.113</t>
+  </si>
+  <si>
+    <t>Lipt.Štiavnica,  Kľučiny</t>
+  </si>
+  <si>
+    <t>Lipt.Štiavnica,  garáž SAD</t>
+  </si>
+  <si>
+    <t>Lipt.Štiavnica,  otoč.</t>
+  </si>
+  <si>
+    <t>Lipt.Sliače, Nižný Sliač Bielený</t>
+  </si>
+  <si>
+    <t>Lipt.Sliače, Stredný Sliač Dielnica</t>
+  </si>
+  <si>
+    <t>Lipt.Sliače, Nižný Sliač Smištík</t>
+  </si>
+  <si>
+    <t>Lipt.Sliače, Nižný Sliač pri moste</t>
+  </si>
+  <si>
+    <t>Lipt.Sliače, Stredný Sliač Gajdoš</t>
+  </si>
+  <si>
+    <t>Lipt.Sliače, Stredný Sliač kostol</t>
+  </si>
+  <si>
+    <t>Lipt.Sliače, Stredný Sliač ZŠ</t>
+  </si>
+  <si>
+    <t>Lipt.Sliače, Stredný Sliač otoč.</t>
+  </si>
+  <si>
+    <t>Lipt.Sliače, Vyšný Sliač garáž</t>
+  </si>
+  <si>
+    <t>Lipt.Sliače, Vyšný Sliač u Cabana</t>
+  </si>
+  <si>
+    <t>Komjatná,  otoč.</t>
+  </si>
+  <si>
+    <t>Lipt.Sliače,  rázc.</t>
+  </si>
+  <si>
+    <t>Turík,  OcÚ</t>
+  </si>
+  <si>
+    <t>Turík,  rázc.</t>
+  </si>
+  <si>
+    <t>Lisková,  kult.dom</t>
+  </si>
+  <si>
+    <t>Lisková,  rázc.RD</t>
+  </si>
+  <si>
+    <t>Lipt.Osada,  Barboriná horáreň</t>
+  </si>
+  <si>
+    <t>Ľubochňa,  Korbelka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ľubochňa,  </t>
+  </si>
+  <si>
+    <t>Lúčky, Lúčky-kúpele otoč.</t>
+  </si>
+  <si>
+    <t>Lúčky,  zdrav.str.</t>
+  </si>
+  <si>
+    <t>Lúčky,  OcÚ</t>
+  </si>
+  <si>
+    <t>Komjatná,  pož.zbroj.</t>
+  </si>
+  <si>
+    <t>Ludrová,  Jednota</t>
+  </si>
+  <si>
+    <t>Ludrová,  RD</t>
+  </si>
+  <si>
+    <t>Ludrová,  č.d.155</t>
+  </si>
+  <si>
+    <t>Ludrová,  č.d.202</t>
+  </si>
+  <si>
+    <t>Ludrová,  č.d.349</t>
+  </si>
+  <si>
+    <t>Lipt.Osada,  zdrav.str.</t>
+  </si>
+  <si>
+    <t>Martinček,  OcÚ</t>
+  </si>
+  <si>
+    <t>Štiavnička,  sušička RD</t>
+  </si>
+  <si>
+    <t>Štiavnička,  odbočka LDCH</t>
+  </si>
+  <si>
+    <t>Ružomberok,  AS</t>
+  </si>
+  <si>
+    <t>Ružomberok, Biely Potok Bohunka</t>
+  </si>
+  <si>
+    <t>Ružomberok, Biely Potok Kovostav</t>
+  </si>
+  <si>
+    <t>Ružomberok, Biely Potok Podsuchá</t>
+  </si>
+  <si>
+    <t>Ružomberok, Biely Potok Slovpap</t>
+  </si>
+  <si>
+    <t>Ružomberok, Biely Potok pri moste</t>
+  </si>
+  <si>
+    <t>Ružomberok,  Celulózka</t>
+  </si>
+  <si>
+    <t>Ružomberok, Černová Bystrá</t>
+  </si>
+  <si>
+    <t>Ružomberok, Černová kolónia</t>
+  </si>
+  <si>
+    <t>Ružomberok,  SOU poľnohospodárske</t>
+  </si>
+  <si>
+    <t>Ružomberok,  Mladá generácia</t>
+  </si>
+  <si>
+    <t>Ružomberok,  Nová Černová</t>
+  </si>
+  <si>
+    <t>Ružomberok,  Pod skalami</t>
+  </si>
+  <si>
+    <t>Turík,  RD</t>
+  </si>
+  <si>
+    <t>Ružomberok,  SPŠ</t>
+  </si>
+  <si>
+    <t>Ružomberok,  Savoy</t>
+  </si>
+  <si>
+    <t>Ružomberok,  Sihoť ZŠ</t>
+  </si>
+  <si>
+    <t>Ružomberok,  Solo horná brána</t>
+  </si>
+  <si>
+    <t>Ružomberok,  Supra</t>
+  </si>
+  <si>
+    <t>Ružomberok,  sídl.SNP</t>
+  </si>
+  <si>
+    <t>Ružomberok,  tehelňa</t>
+  </si>
+  <si>
+    <t>Ružomberok,  Vápenka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stankovany, Rojkov </t>
+  </si>
+  <si>
+    <t>Stankovany,  pri moste</t>
+  </si>
+  <si>
+    <t>Štiavnička,  LDCH otoč.</t>
+  </si>
+  <si>
+    <t>Štiavnička,  MŠ</t>
+  </si>
+  <si>
+    <t>Štiavnička,  most</t>
+  </si>
+  <si>
+    <t>Lipt.Michal,  pod cintorínom</t>
+  </si>
+  <si>
+    <t>Valaská Dubová,  OcÚ</t>
+  </si>
+  <si>
+    <t>Valaská Dubová,  rázc.</t>
+  </si>
+  <si>
+    <t>Valaská Dubová,  u Drobúľa</t>
+  </si>
+  <si>
+    <t>Ružomberok,  žel.st.</t>
+  </si>
+  <si>
+    <t>Lipt.Teplá,  Prefa</t>
+  </si>
+  <si>
+    <t>Čertovica,  motorest</t>
+  </si>
+  <si>
+    <t>Dolný Kubín,  Alej slobody</t>
+  </si>
+  <si>
+    <t>Dolný Kubín,  SAD</t>
+  </si>
+  <si>
+    <t>Dolný Kubín, Mokraď priem.park</t>
+  </si>
+  <si>
+    <t>Dolný Kubín,  aut.st.</t>
+  </si>
+  <si>
+    <t>Kraľovany,  žel.st.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vysoké Tatry, Nová Polianka </t>
+  </si>
+  <si>
+    <t>Pribylina,  Zruby</t>
+  </si>
+  <si>
+    <t>Vysoké Tatry, Podbanské ch.kpt.Rašu</t>
+  </si>
+  <si>
+    <t>Poprad,  AS</t>
+  </si>
+  <si>
+    <t>Vysoké Tatry, Starý Smokovec aut.st.</t>
+  </si>
+  <si>
+    <t>Štrba, Štrbské Pleso cen.park.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vysoké Tatry, Tatr.Polianka </t>
+  </si>
+  <si>
+    <t>Bobrovec,  Luhy</t>
+  </si>
+  <si>
+    <t>Kráľova Lehota,  Preglejka št.cesta</t>
+  </si>
+  <si>
+    <t>Vysoké Tatry, Vyšné Hágy rázc.k LÚ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jasenová,  </t>
+  </si>
+  <si>
+    <t>Vyšný Kubín,  rázc.</t>
+  </si>
+  <si>
+    <t>Dolný Kubín,  Banisko</t>
+  </si>
+  <si>
+    <t>Dolný Kubín,  SEZ</t>
+  </si>
+  <si>
+    <t>Pribylina,  Permon</t>
+  </si>
+  <si>
+    <t>Dolný Kubín,  Matúškova</t>
+  </si>
+  <si>
+    <t>Dolný Kubín, Mokraď Tech.služby</t>
+  </si>
+  <si>
+    <t>Lipt.Trnovec,  ATC</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Lipt.Ondrašová kost.</t>
+  </si>
+  <si>
+    <t>Závažná Poruba,  pri pomníku</t>
+  </si>
+  <si>
+    <t>Závažná Poruba,  kult.dom</t>
+  </si>
+  <si>
+    <t>Závažná Poruba,  ul.p.Hrádkom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prosiek, Zádiel </t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  ul.Hurbanova MŠ</t>
+  </si>
+  <si>
+    <t>Hybe,  rázc.na Kráľovu Lehotu</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  AS</t>
+  </si>
+  <si>
+    <t>Jamník,  Jednota</t>
+  </si>
+  <si>
+    <t>Pribylina,  Rač.dol.ráz.h.Esperanto</t>
+  </si>
+  <si>
+    <t>Lipt.Revúce, Nižná Revúca Jednota</t>
+  </si>
+  <si>
+    <t>Lipt.Štiavnica,  mlyn</t>
+  </si>
+  <si>
+    <t>Ružomberok,  Supra-vily</t>
+  </si>
+  <si>
+    <t>Lipt.Sliače, Stredný Sliač Dom smútku</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Lipt.Ondrašová otoč.</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Lipt.Ondrašová most</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Palúdzka ul.Palugyayho</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Demänová mlynisko</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Bodice kostol</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš, Bodice Jednota</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  Podbreziny Juh</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  Podbreziny otoč.</t>
+  </si>
+  <si>
+    <t>Kvačany,  SSC</t>
+  </si>
+  <si>
+    <t>Ružomberok,  Supra-stred</t>
+  </si>
+  <si>
+    <t>Lipt.Revúce, Nižná Revúca r.Teplô</t>
+  </si>
+  <si>
+    <t>Lipt.Revúce, Nižná Revúca Rosa</t>
+  </si>
+  <si>
+    <t>Lipt.Revúce, Stredná Revúca ZŠ</t>
+  </si>
+  <si>
+    <t>Lipt.Revúce, Stredná Revúca Migra</t>
+  </si>
+  <si>
+    <t>Lipt.Revúce, Stredná Revúca pož.zbr.</t>
+  </si>
+  <si>
+    <t>Lipt.Revúce, Stredná Revúca Vrbina</t>
+  </si>
+  <si>
+    <t>Lipt.Revúce, Vyšná Revúca Pilná</t>
+  </si>
+  <si>
+    <t>Lipt.Revúce, Vyšná Revúca Jednota</t>
+  </si>
+  <si>
+    <t>Lipt.Štiavnica,  pri kaplnke</t>
+  </si>
+  <si>
+    <t>Kvačany,  garáž SAD</t>
+  </si>
+  <si>
+    <t>Lazisko,  garáž SAD</t>
+  </si>
+  <si>
+    <t>Lipt.Sliače, Vyšný Sliač družstvo</t>
+  </si>
+  <si>
+    <t>Lipt.Matiašovce,  kaplnka</t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok,  Alcatel</t>
+  </si>
+  <si>
+    <t>Huty,  Dolinky</t>
+  </si>
+  <si>
+    <t>Komjatná, Studničná Panská lúka</t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok,  most</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  Jánošíkovo nábr.</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  Močiare Voj.akad.</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  ul.Štúrova MsÚ</t>
+  </si>
+  <si>
+    <t>Stankovany, Rojkov bar</t>
+  </si>
+  <si>
+    <t>Žiar,  Dolinky</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  Aqua Park</t>
+  </si>
+  <si>
+    <t>Ružomberok, Biely Potok Raveň</t>
+  </si>
+  <si>
+    <t>Ružomberok, Biely Potok Do Uhliska</t>
+  </si>
+  <si>
+    <t>Ružomberok, Biely Potok Trlenská dolina</t>
+  </si>
+  <si>
+    <t>Ružomberok, Biely Potok Nižné Matejkové</t>
+  </si>
+  <si>
+    <t>Lisková,  križ.</t>
+  </si>
+  <si>
+    <t>Banská Bystrica, Jakub Nový Svet II.</t>
+  </si>
+  <si>
+    <t>Banská Bystrica,  EUROPA SC</t>
+  </si>
+  <si>
+    <t>Lipt.Ján,  hotel Bystrá</t>
+  </si>
+  <si>
+    <t>Lipt.Ján,  Alexandra Wellness Hotel</t>
+  </si>
+  <si>
+    <t>Ružomberok,  Roveň Poľná</t>
+  </si>
+  <si>
+    <t>Ružomberok,  Roveň Vojenská nem.</t>
+  </si>
+  <si>
+    <t>Stankovany,  Strakov</t>
+  </si>
+  <si>
+    <t>Lipt.Ján,  ul.Starojánska ZŠ</t>
+  </si>
+  <si>
+    <t>Demänovská Dolina,  Wellness hotel Chopok</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  Rachmaninovo nám.</t>
+  </si>
+  <si>
+    <t>Veterná Poruba,  skládka TKO</t>
+  </si>
+  <si>
+    <t>Svätý Kríž,  most</t>
+  </si>
+  <si>
+    <t>Komjatná,  Pod Stráňou</t>
+  </si>
+  <si>
+    <t>Ružomberok,  evanjelický kostol</t>
+  </si>
+  <si>
+    <t>Ružomberok,  Nám. A.Hlinku</t>
+  </si>
+  <si>
+    <t>Smrečany,  bytovky</t>
+  </si>
+  <si>
+    <t>Galovany,  križ.</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  St.NICOLAUS</t>
+  </si>
+  <si>
+    <t>Bešeňová,  Sihoť</t>
+  </si>
+  <si>
+    <t>Bešeňová,  bytovka 109</t>
+  </si>
+  <si>
+    <t>Lipt.Hrádok,  stavebniny</t>
+  </si>
+  <si>
+    <t>Lipt.Mikuláš,  ul.Štefánikova</t>
+  </si>
+  <si>
+    <t>Ludrová,  otočka</t>
+  </si>
+  <si>
+    <t>Lipt.Osada,  pekáreň</t>
+  </si>
+  <si>
+    <t>Garáž RK</t>
+  </si>
+  <si>
+    <t>Garáž LM</t>
   </si>
 </sst>
 </file>
@@ -2350,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="K473" sqref="K473"/>
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="G473" sqref="G473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3931,7 +3928,7 @@
         <v>49.053520300000002</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3944,16 +3941,13 @@
       <c r="D113" s="2">
         <v>0</v>
       </c>
-      <c r="E113" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2">
         <v>19.769864999999999</v>
@@ -3962,12 +3956,12 @@
         <v>49.035095249999998</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2">
         <v>19.731867279999999</v>
@@ -3976,12 +3970,12 @@
         <v>49.0445852</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C116" s="2">
         <v>19.731330799999999</v>
@@ -3990,12 +3984,12 @@
         <v>49.028720800000002</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C117" s="2">
         <v>19.735780800000001</v>
@@ -4004,12 +3998,12 @@
         <v>49.0309411</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C118" s="2">
         <v>19.736709699999999</v>
@@ -4018,12 +4012,12 @@
         <v>49.0331306</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C119" s="2">
         <v>19.739160600000002</v>
@@ -4032,12 +4026,12 @@
         <v>49.046428599999999</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C120" s="2">
         <v>19.728769400000001</v>
@@ -4046,12 +4040,12 @@
         <v>49.0410003</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121" s="2">
         <v>19.726789400000001</v>
@@ -4060,12 +4054,12 @@
         <v>49.0387992</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C122" s="2">
         <v>19.735700600000001</v>
@@ -4074,12 +4068,12 @@
         <v>49.036308300000002</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2">
         <v>19.716735</v>
@@ -4088,12 +4082,12 @@
         <v>49.039779699999997</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C124" s="2">
         <v>19.7199396</v>
@@ -4102,12 +4096,12 @@
         <v>49.037887679999997</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C125" s="2">
         <v>19.676160800000002</v>
@@ -4116,12 +4110,12 @@
         <v>49.047859199999998</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C126" s="2">
         <v>19.6784201</v>
@@ -4130,12 +4124,12 @@
         <v>49.052700000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C127" s="2">
         <v>19.54616545</v>
@@ -4144,12 +4138,12 @@
         <v>49.113905000000003</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C128" s="2">
         <v>19.673780600000001</v>
@@ -4163,7 +4157,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C129" s="2">
         <v>19.438132</v>
@@ -4177,7 +4171,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C130" s="2">
         <v>19.440149399999999</v>
@@ -4191,7 +4185,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C131" s="2">
         <v>19.435315150000001</v>
@@ -4205,7 +4199,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C132" s="2">
         <v>19.553829199999999</v>
@@ -4219,7 +4213,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C133" s="2">
         <v>19.555479200000001</v>
@@ -4233,7 +4227,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C134" s="2">
         <v>19.561700800000001</v>
@@ -4247,7 +4241,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C135" s="2">
         <v>19.561939200000001</v>
@@ -4261,7 +4255,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C136" s="2">
         <v>19.61116985</v>
@@ -4275,7 +4269,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C137" s="2">
         <v>19.585250800000001</v>
@@ -4289,7 +4283,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C138" s="2">
         <v>19.502750299999999</v>
@@ -4303,7 +4297,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C139" s="2">
         <v>19.7392997</v>
@@ -4317,7 +4311,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C140" s="2">
         <v>19.60455</v>
@@ -4331,7 +4325,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C141" s="2">
         <v>19.5145397</v>
@@ -4345,7 +4339,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C142">
         <v>19.598063</v>
@@ -4359,7 +4353,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C143" s="2">
         <v>19.629031000000001</v>
@@ -4373,7 +4367,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C144" s="2">
         <v>19.606250800000002</v>
@@ -4387,7 +4381,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C145">
         <v>19.660955000000001</v>
@@ -4401,7 +4395,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C146" s="2">
         <v>19.65049677</v>
@@ -4415,7 +4409,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C147" s="2">
         <v>19.650859700000002</v>
@@ -4429,7 +4423,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C148" s="2">
         <v>19.5885444</v>
@@ -4443,7 +4437,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C149">
         <v>19.6004</v>
@@ -4457,7 +4451,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C150" s="2">
         <v>19.597810800000001</v>
@@ -4471,7 +4465,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C151" s="2">
         <v>19.6539994</v>
@@ -4485,7 +4479,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C152" s="2">
         <v>19.6495608</v>
@@ -4499,7 +4493,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C153" s="2">
         <v>19.630855700000001</v>
@@ -4513,7 +4507,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C154" s="2">
         <v>19.603679700000001</v>
@@ -4527,7 +4521,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C155">
         <v>19.642797000000002</v>
@@ -4541,7 +4535,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C156" s="2">
         <v>19.618524300000001</v>
@@ -4555,7 +4549,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C157" s="2">
         <v>19.717279399999999</v>
@@ -4569,7 +4563,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C158" s="2">
         <v>19.719619699999999</v>
@@ -4583,7 +4577,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C159" s="2">
         <v>19.712</v>
@@ -4597,7 +4591,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C160" s="2">
         <v>19.700740799999998</v>
@@ -4611,7 +4605,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C161" s="2">
         <v>19.712619700000001</v>
@@ -4625,7 +4619,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C162" s="2">
         <v>19.536321699999998</v>
@@ -4639,7 +4633,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C163" s="2">
         <v>19.54731</v>
@@ -4653,7 +4647,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C164" s="2">
         <v>19.546199999999999</v>
@@ -4667,7 +4661,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C165" s="2">
         <v>19.458879400000001</v>
@@ -4681,7 +4675,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C166" s="2">
         <v>19.455570300000002</v>
@@ -4695,7 +4689,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C167" s="2">
         <v>19.451110799999999</v>
@@ -4709,7 +4703,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C168" s="2">
         <v>19.457935450000001</v>
@@ -4723,7 +4717,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C169">
         <v>19.719899999999999</v>
@@ -4737,7 +4731,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C170" s="2">
         <v>19.537019699999998</v>
@@ -4751,7 +4745,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C171" s="2">
         <v>19.54344</v>
@@ -4765,7 +4759,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C172" s="2">
         <v>19.7649203</v>
@@ -4779,7 +4773,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C173" s="2">
         <v>19.7694397</v>
@@ -4793,7 +4787,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C174" s="2">
         <v>19.773614850000001</v>
@@ -4807,7 +4801,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C175" s="2">
         <v>19.7639657</v>
@@ -4821,7 +4815,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C176" s="2">
         <v>19.7735597</v>
@@ -4835,7 +4829,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C177" s="2">
         <v>19.768350600000002</v>
@@ -4849,7 +4843,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C178" s="2">
         <v>19.437160599999999</v>
@@ -4863,7 +4857,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C179" s="2">
         <v>19.430900600000001</v>
@@ -4877,7 +4871,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C180" s="2">
         <v>19.433519400000002</v>
@@ -4891,7 +4885,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C181" s="2">
         <v>19.435770000000002</v>
@@ -4905,7 +4899,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C182" s="2">
         <v>19.4309692</v>
@@ -4919,7 +4913,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C183" s="2">
         <v>19.439405449999999</v>
@@ -4933,7 +4927,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C184" s="2">
         <v>19.583770000000001</v>
@@ -4947,7 +4941,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C185" s="2">
         <v>19.566110599999998</v>
@@ -4961,7 +4955,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C186" s="2">
         <v>19.5627803</v>
@@ -4975,7 +4969,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C187" s="2">
         <v>19.694860599999998</v>
@@ -4989,7 +4983,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C188" s="2">
         <v>19.696380600000001</v>
@@ -5003,7 +4997,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C189" s="2">
         <v>19.860484199999998</v>
@@ -5017,7 +5011,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C190" s="2">
         <v>19.893940000000001</v>
@@ -5031,7 +5025,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C191" s="2">
         <v>19.879079699999998</v>
@@ -5045,7 +5039,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C192" s="2">
         <v>19.823887899999999</v>
@@ -5054,12 +5048,12 @@
         <v>49.115934449999997</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C193" s="2">
         <v>19.793979700000001</v>
@@ -5068,12 +5062,12 @@
         <v>49.092521699999999</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C194" s="2">
         <v>19.801410600000001</v>
@@ -5082,12 +5076,12 @@
         <v>49.100788100000003</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C195" s="2">
         <v>19.796399999999998</v>
@@ -5096,12 +5090,12 @@
         <v>49.097270799999997</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -5109,16 +5103,13 @@
       <c r="D196" s="2">
         <v>0</v>
       </c>
-      <c r="E196" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C197" s="2">
         <v>19.500999400000001</v>
@@ -5127,12 +5118,12 @@
         <v>49.144298599999999</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C198" s="2">
         <v>19.500919400000001</v>
@@ -5141,12 +5132,12 @@
         <v>49.1470603</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C199" s="2">
         <v>19.499130300000001</v>
@@ -5155,12 +5146,12 @@
         <v>49.1508483</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C200" s="2">
         <v>19.5019092</v>
@@ -5169,12 +5160,12 @@
         <v>49.129890600000003</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C201" s="2">
         <v>19.649070800000001</v>
@@ -5183,12 +5174,12 @@
         <v>49.1146508</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C202" s="2">
         <v>19.6510906</v>
@@ -5197,12 +5188,12 @@
         <v>49.118991899999997</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C203" s="2">
         <v>19.653690300000001</v>
@@ -5211,12 +5202,12 @@
         <v>49.122749399999996</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C204" s="2">
         <v>19.7570306</v>
@@ -5225,12 +5216,12 @@
         <v>48.941509199999999</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C205">
         <v>19.53726</v>
@@ -5239,12 +5230,12 @@
         <v>49.048409999999997</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C206">
         <v>19.533300000000001</v>
@@ -5253,12 +5244,12 @@
         <v>49.05603</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C207">
         <v>19.53877</v>
@@ -5267,12 +5258,12 @@
         <v>49.041460000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C208" s="2">
         <v>19.534759399999999</v>
@@ -5281,12 +5272,12 @@
         <v>49.051200799999997</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C209" s="2">
         <v>19.534759399999999</v>
@@ -5295,12 +5286,12 @@
         <v>49.051200799999997</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C210" s="2">
         <v>19.52969555</v>
@@ -5309,12 +5300,12 @@
         <v>49.056324050000001</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C211" s="2">
         <v>19.760179399999998</v>
@@ -5323,12 +5314,12 @@
         <v>48.985431699999999</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C212" s="2">
         <v>19.6219006</v>
@@ -5337,12 +5328,12 @@
         <v>49.1155586</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C213">
         <v>19.686330999999999</v>
@@ -5351,12 +5342,12 @@
         <v>49.063772999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C214" s="2">
         <v>19.762140299999999</v>
@@ -5365,12 +5356,12 @@
         <v>49.069290299999999</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C215" s="2">
         <v>19.763059699999999</v>
@@ -5379,12 +5370,12 @@
         <v>49.073150599999998</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -5392,16 +5383,13 @@
       <c r="D216" s="2">
         <v>0</v>
       </c>
-      <c r="E216" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C217" s="2">
         <v>19.979709700000001</v>
@@ -5410,12 +5398,12 @@
         <v>49.059040000000003</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C218" s="2">
         <v>19.977033939999998</v>
@@ -5424,12 +5412,12 @@
         <v>49.061616600000001</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C219" s="2">
         <v>19.5347194</v>
@@ -5438,12 +5426,12 @@
         <v>49.205070599999999</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C220" s="2">
         <v>19.517579999999999</v>
@@ -5452,12 +5440,12 @@
         <v>49.197670000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C221" s="2">
         <v>19.5085908</v>
@@ -5466,12 +5454,12 @@
         <v>49.201320600000003</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C222" s="2">
         <v>19.677099200000001</v>
@@ -5480,12 +5468,12 @@
         <v>49.109329199999998</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C223" s="2">
         <v>19.677110599999999</v>
@@ -5494,12 +5482,12 @@
         <v>49.109348300000001</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C224" s="2">
         <v>19.4735908</v>
@@ -5513,7 +5501,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C225" s="2">
         <v>19.478780799999999</v>
@@ -5527,7 +5515,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C226" s="2">
         <v>19.475299700000001</v>
@@ -5541,7 +5529,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C227" s="2">
         <v>19.469850600000001</v>
@@ -5555,7 +5543,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C228" s="2">
         <v>19.475281599999999</v>
@@ -5569,7 +5557,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C229" s="2">
         <v>19.877894399999999</v>
@@ -5583,7 +5571,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C230" s="2">
         <v>19.888160800000001</v>
@@ -5597,7 +5585,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C231" s="2">
         <v>19.885299700000001</v>
@@ -5611,7 +5599,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C232" s="2">
         <v>19.891840630000001</v>
@@ -5625,7 +5613,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C233" s="2">
         <v>19.8966408</v>
@@ -5639,7 +5627,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C234" s="2">
         <v>19.914770300000001</v>
@@ -5653,7 +5641,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C235" s="2">
         <v>19.917379400000002</v>
@@ -5667,7 +5655,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C236" s="2">
         <v>19.7526397</v>
@@ -5681,7 +5669,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C237" s="2">
         <v>19.749359200000001</v>
@@ -5695,7 +5683,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C238">
         <v>19.750640000000001</v>
@@ -5709,7 +5697,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C239" s="2">
         <v>19.650074199999999</v>
@@ -5723,7 +5711,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C240" s="2">
         <v>19.644069699999999</v>
@@ -5732,12 +5720,12 @@
         <v>49.049209699999999</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C241" s="2">
         <v>19.671600300000001</v>
@@ -5746,12 +5734,12 @@
         <v>49.133350299999996</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C242" s="2">
         <v>19.659420000000001</v>
@@ -5760,12 +5748,12 @@
         <v>49.1286317</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C243" s="2">
         <v>19.666059400000002</v>
@@ -5774,12 +5762,12 @@
         <v>49.131458299999998</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C244" s="2">
         <v>19.684629399999999</v>
@@ -5788,12 +5776,12 @@
         <v>49.139049399999998</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C245" s="2">
         <v>19.6949197</v>
@@ -5802,12 +5790,12 @@
         <v>49.144100299999998</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C246" s="2">
         <v>0</v>
@@ -5815,16 +5803,13 @@
       <c r="D246" s="2">
         <v>0</v>
       </c>
-      <c r="E246" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C247" s="2">
         <v>19.47711</v>
@@ -5833,12 +5818,12 @@
         <v>49.048679399999997</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C248" s="2">
         <v>19.481649399999998</v>
@@ -5847,12 +5832,12 @@
         <v>49.052238299999999</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C249">
         <v>19.483467999999998</v>
@@ -5861,12 +5846,12 @@
         <v>49.050376</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C250" s="2">
         <v>19.479129700000001</v>
@@ -5875,12 +5860,12 @@
         <v>49.0517617</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C251">
         <v>19.476351999999999</v>
@@ -5889,12 +5874,12 @@
         <v>49.053125999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C252" s="2">
         <v>19.476472350000002</v>
@@ -5903,12 +5888,12 @@
         <v>49.05987743</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C253" s="2">
         <v>19.576240599999998</v>
@@ -5917,12 +5902,12 @@
         <v>49.0361786</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C254" s="2">
         <v>19.491039199999999</v>
@@ -5931,12 +5916,12 @@
         <v>49.057750800000001</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C255" s="2">
         <v>19.07996</v>
@@ -5945,12 +5930,12 @@
         <v>49.133548599999997</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C256" s="2">
         <v>18.926210300000001</v>
@@ -5964,7 +5949,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C257" s="2">
         <v>18.931804750000001</v>
@@ -5978,7 +5963,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C258" s="2">
         <v>18.927860299999999</v>
@@ -5992,7 +5977,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C259" s="2">
         <v>18.925870799999998</v>
@@ -6006,7 +5991,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C260" s="2">
         <v>18.9208794</v>
@@ -6020,7 +6005,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C261" s="2">
         <v>18.9228375</v>
@@ -6034,7 +6019,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C262" s="2">
         <v>18.916129999999999</v>
@@ -6048,7 +6033,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C263" s="2">
         <v>19.086469699999999</v>
@@ -6062,7 +6047,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C264" s="2">
         <v>18.99105028</v>
@@ -6076,7 +6061,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C265" s="2">
         <v>19.0008354</v>
@@ -6090,7 +6075,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C266" s="2">
         <v>18.971489850000001</v>
@@ -6104,7 +6089,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C267" s="2">
         <v>19.091459199999999</v>
@@ -6118,7 +6103,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C268" s="2">
         <v>19.096719700000001</v>
@@ -6132,7 +6117,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C269" s="2">
         <v>19.0359403</v>
@@ -6146,7 +6131,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C270" s="2">
         <v>19.084129399999998</v>
@@ -6160,7 +6145,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C271" s="2">
         <v>19.180320800000001</v>
@@ -6174,7 +6159,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C272" s="2">
         <v>19.19326015</v>
@@ -6188,7 +6173,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C273" s="2">
         <v>19.414650000000002</v>
@@ -6202,7 +6187,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C274">
         <v>19.4102</v>
@@ -6216,7 +6201,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C275" s="2">
         <v>19.2531508</v>
@@ -6230,7 +6215,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C276" s="2">
         <v>19.247900000000001</v>
@@ -6244,7 +6229,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C277" s="2">
         <v>19.250070600000001</v>
@@ -6258,7 +6243,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C278" s="2">
         <v>19.263610799999999</v>
@@ -6272,7 +6257,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C279" s="2">
         <v>19.24362</v>
@@ -6286,7 +6271,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C280" s="2">
         <v>19.3039208</v>
@@ -6300,7 +6285,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C281" s="2">
         <v>19.306810299999999</v>
@@ -6314,7 +6299,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C282" s="2">
         <v>19.314500800000001</v>
@@ -6328,7 +6313,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C283" s="2">
         <v>19.300359700000001</v>
@@ -6342,7 +6327,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C284" s="2">
         <v>19.312999699999999</v>
@@ -6356,7 +6341,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C285" s="2">
         <v>19.305434200000001</v>
@@ -6370,7 +6355,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C286" s="2">
         <v>19.305890000000002</v>
@@ -6384,7 +6369,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C287" s="2">
         <v>19.309909699999999</v>
@@ -6398,7 +6383,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C288" s="2">
         <v>19.310369399999999</v>
@@ -6412,7 +6397,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C289" s="2">
         <v>19.345369399999999</v>
@@ -6426,7 +6411,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C290" s="2">
         <v>19.329250300000002</v>
@@ -6440,7 +6425,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C291" s="2">
         <v>19.321630599999999</v>
@@ -6454,7 +6439,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C292" s="2">
         <v>19.3158703</v>
@@ -6468,7 +6453,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C293" s="2">
         <v>19.301479400000002</v>
@@ -6482,7 +6467,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C294" s="2">
         <v>19.338819399999998</v>
@@ -6496,7 +6481,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C295" s="2">
         <v>19.305299699999999</v>
@@ -6510,7 +6495,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C296" s="2">
         <v>19.2611135</v>
@@ -6524,7 +6509,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C297" s="2">
         <v>19.265710800000001</v>
@@ -6538,7 +6523,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C298" s="2">
         <v>19.2831592</v>
@@ -6552,7 +6537,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C299" s="2">
         <v>19.263170299999999</v>
@@ -6566,7 +6551,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C300" s="2">
         <v>19.261470800000001</v>
@@ -6580,7 +6565,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C301" s="2">
         <v>19.246120600000001</v>
@@ -6594,7 +6579,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C302" s="2">
         <v>19.269359699999999</v>
@@ -6608,7 +6593,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C303" s="2">
         <v>19.345797399999999</v>
@@ -6622,7 +6607,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C304" s="2">
         <v>19.3565808</v>
@@ -6636,7 +6621,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C305" s="2">
         <v>19.361480799999999</v>
@@ -6650,7 +6635,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C306" s="2">
         <v>19.380769999999998</v>
@@ -6664,7 +6649,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C307" s="2">
         <v>19.384630000000001</v>
@@ -6678,7 +6663,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C308" s="2">
         <v>19.377739999999999</v>
@@ -6692,7 +6677,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C309" s="2">
         <v>19.38372</v>
@@ -6706,7 +6691,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C310" s="2">
         <v>19.388449999999999</v>
@@ -6720,7 +6705,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C311">
         <v>19.38946</v>
@@ -6734,7 +6719,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C312" s="2">
         <v>19.386839999999999</v>
@@ -6748,7 +6733,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C313" s="2">
         <v>19.388290000000001</v>
@@ -6762,7 +6747,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C314" s="2">
         <v>19.40823</v>
@@ -6776,7 +6761,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C315" s="2">
         <v>19.406059200000001</v>
@@ -6790,7 +6775,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C316" s="2">
         <v>19.235940800000002</v>
@@ -6804,7 +6789,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C317" s="2">
         <v>19.372350699999998</v>
@@ -6818,7 +6803,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C318" s="2">
         <v>19.382629399999999</v>
@@ -6832,7 +6817,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C319" s="2">
         <v>19.387510299999999</v>
@@ -6846,7 +6831,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C320" s="2">
         <v>19.352930000000001</v>
@@ -6860,7 +6845,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C321" s="2">
         <v>19.358980299999999</v>
@@ -6874,7 +6859,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C322" s="2">
         <v>19.264999400000001</v>
@@ -6888,7 +6873,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C323" s="2">
         <v>19.170400600000001</v>
@@ -6902,7 +6887,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C324" s="2">
         <v>19.168039400000001</v>
@@ -6916,7 +6901,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C325" s="2">
         <v>19.4009608</v>
@@ -6930,7 +6915,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C326" s="2">
         <v>19.407520300000002</v>
@@ -6944,7 +6929,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C327" s="2">
         <v>19.4033394</v>
@@ -6958,7 +6943,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C328" s="2">
         <v>19.246790000000001</v>
@@ -6972,7 +6957,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C329" s="2">
         <v>19.331010800000001</v>
@@ -6986,7 +6971,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C330" s="2">
         <v>19.33436</v>
@@ -7000,7 +6985,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C331" s="2">
         <v>19.334049199999999</v>
@@ -7014,7 +6999,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C332" s="2">
         <v>19.333379699999998</v>
@@ -7028,7 +7013,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C333" s="2">
         <v>19.3327694</v>
@@ -7042,7 +7027,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C334" s="2">
         <v>19.27186</v>
@@ -7056,7 +7041,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C335" s="2">
         <v>19.3362008</v>
@@ -7070,7 +7055,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C336" s="2">
         <v>19.341379199999999</v>
@@ -7084,7 +7069,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C337" s="2">
         <v>19.3438397</v>
@@ -7098,7 +7083,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C338" s="2">
         <v>19.307964999999999</v>
@@ -7112,7 +7097,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C339" s="2">
         <v>19.293069899999999</v>
@@ -7126,7 +7111,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C340" s="2">
         <v>19.29442727</v>
@@ -7140,7 +7125,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C341" s="2">
         <v>19.282905700000001</v>
@@ -7154,7 +7139,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C342" s="2">
         <v>19.293779399999998</v>
@@ -7168,7 +7153,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C343" s="2">
         <v>19.299655000000001</v>
@@ -7182,7 +7167,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C344" s="2">
         <v>19.331760599999999</v>
@@ -7196,7 +7181,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C345" s="2">
         <v>19.225784999999998</v>
@@ -7210,7 +7195,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C346" s="2">
         <v>19.252665</v>
@@ -7224,7 +7209,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C347" s="2">
         <v>19.304703499999999</v>
@@ -7238,7 +7223,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C348" s="2">
         <v>19.2829519</v>
@@ -7252,7 +7237,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C349" s="2">
         <v>19.2703864</v>
@@ -7266,7 +7251,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C350" s="2">
         <v>19.3063219</v>
@@ -7280,7 +7265,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C351" s="2">
         <v>19.387500800000002</v>
@@ -7294,7 +7279,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C352" s="2">
         <v>19.293765499999999</v>
@@ -7308,7 +7293,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C353" s="2">
         <v>19.3043759</v>
@@ -7322,7 +7307,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C354" s="2">
         <v>19.3063313</v>
@@ -7336,7 +7321,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C355" s="2">
         <v>19.304710799999999</v>
@@ -7350,7 +7335,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C356" s="2">
         <v>19.317061599999999</v>
@@ -7364,7 +7349,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C357" s="2">
         <v>19.308881469999999</v>
@@ -7378,7 +7363,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C358" s="2">
         <v>19.31007</v>
@@ -7392,7 +7377,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C359" s="2">
         <v>19.3033459</v>
@@ -7406,7 +7391,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C360" s="2">
         <v>19.156784999999999</v>
@@ -7420,7 +7405,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C361" s="2">
         <v>19.16732515</v>
@@ -7434,7 +7419,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C362" s="2">
         <v>19.3438397</v>
@@ -7448,7 +7433,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C363" s="2">
         <v>19.341810299999999</v>
@@ -7462,7 +7447,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C364" s="2">
         <v>19.341729999999998</v>
@@ -7476,7 +7461,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C365" s="2">
         <v>19.4354306</v>
@@ -7490,7 +7475,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C366" s="2">
         <v>19.293150000000001</v>
@@ -7504,7 +7489,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C367" s="2">
         <v>19.287530799999999</v>
@@ -7518,7 +7503,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C368" s="2">
         <v>19.2908592</v>
@@ -7532,7 +7517,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C369" s="2">
         <v>19.306560600000001</v>
@@ -7546,7 +7531,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C370" s="2">
         <v>19.423950300000001</v>
@@ -7560,7 +7545,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C371">
         <v>19.73554</v>
@@ -7574,7 +7559,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C372" s="2">
         <v>19.297034</v>
@@ -7588,7 +7573,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C373" s="2">
         <v>19.304590300000001</v>
@@ -7602,7 +7587,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C374" s="2">
         <v>19.300671600000001</v>
@@ -7616,7 +7601,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C375" s="2">
         <v>19.296015229999998</v>
@@ -7630,7 +7615,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C376" s="2">
         <v>19.1299706</v>
@@ -7644,7 +7629,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C377">
         <v>20.150870000000001</v>
@@ -7658,7 +7643,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C378" s="2">
         <v>19.901369200000001</v>
@@ -7672,7 +7657,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C379">
         <v>19.968508</v>
@@ -7686,7 +7671,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C380">
         <v>20.292539999999999</v>
@@ -7700,7 +7685,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C381">
         <v>20.225549999999998</v>
@@ -7714,7 +7699,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C382">
         <v>20.064129999999999</v>
@@ -7728,7 +7713,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C383">
         <v>20.187169999999998</v>
@@ -7742,7 +7727,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C384" s="2">
         <v>19.619119999999999</v>
@@ -7756,7 +7741,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C385" s="2">
         <v>19.7798692</v>
@@ -7770,7 +7755,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C386">
         <v>20.125060000000001</v>
@@ -7784,7 +7769,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C387" s="2">
         <v>19.299580550000002</v>
@@ -7798,7 +7783,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C388" s="2">
         <v>19.3078851</v>
@@ -7812,7 +7797,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C389" s="2">
         <v>19.304279999999999</v>
@@ -7826,7 +7811,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C390" s="2">
         <v>19.297464399999999</v>
@@ -7840,7 +7825,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C391" s="2">
         <v>19.906839399999999</v>
@@ -7854,7 +7839,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C392" s="2">
         <v>19.301005450000002</v>
@@ -7868,7 +7853,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C393" s="2">
         <v>19.307525600000002</v>
@@ -7882,7 +7867,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C394" s="2">
         <v>19.545179399999999</v>
@@ -7896,7 +7881,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C395" s="2">
         <v>19.589763900000001</v>
@@ -7910,7 +7895,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C396" s="2">
         <v>19.650079699999999</v>
@@ -7924,7 +7909,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C397" s="2">
         <v>19.648809400000001</v>
@@ -7938,7 +7923,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C398" s="2">
         <v>19.645099699999999</v>
@@ -7952,7 +7937,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C399" s="2">
         <v>19.500338299999999</v>
@@ -7966,7 +7951,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C400" s="2">
         <v>19.6060321</v>
@@ -7980,7 +7965,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C401" s="2">
         <v>19.785119999999999</v>
@@ -7994,7 +7979,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C402" s="2">
         <v>19.608520599999999</v>
@@ -8008,7 +7993,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C403" s="2">
         <v>19.709720600000001</v>
@@ -8022,7 +8007,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C404" s="2">
         <v>19.809024900000001</v>
@@ -8036,7 +8021,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C405" s="2">
         <v>19.210149999999999</v>
@@ -8050,7 +8035,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C406" s="2">
         <v>19.349270000000001</v>
@@ -8064,7 +8049,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C407" s="2">
         <v>19.318804400000001</v>
@@ -8078,7 +8063,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C408" s="2">
         <v>19.39433</v>
@@ -8092,7 +8077,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C409" s="2">
         <v>19.591819699999999</v>
@@ -8106,7 +8091,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C410" s="2">
         <v>19.589192199999999</v>
@@ -8120,7 +8105,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C411" s="2">
         <v>19.5885444</v>
@@ -8134,7 +8119,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C412" s="2">
         <v>19.580070599999999</v>
@@ -8148,7 +8133,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C413" s="2">
         <v>19.574915000000001</v>
@@ -8162,7 +8147,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C414" s="2">
         <v>19.577282</v>
@@ -8176,7 +8161,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C415" s="2">
         <v>19.653850599999998</v>
@@ -8190,7 +8175,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C416" s="2">
         <v>19.6536008</v>
@@ -8204,7 +8189,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C417" s="2">
         <v>19.581119999999999</v>
@@ -8218,7 +8203,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C418" s="2">
         <v>19.3169194</v>
@@ -8232,7 +8217,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C419" s="2">
         <v>19.23508</v>
@@ -8246,7 +8231,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C420" s="2">
         <v>19.203790000000001</v>
@@ -8260,7 +8245,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C421" s="2">
         <v>19.192489999999999</v>
@@ -8274,7 +8259,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C422" s="2">
         <v>19.183759999999999</v>
@@ -8288,7 +8273,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C423" s="2">
         <v>19.179400000000001</v>
@@ -8302,7 +8287,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C424" s="2">
         <v>19.17456</v>
@@ -8316,7 +8301,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C425" s="2">
         <v>19.168295000000001</v>
@@ -8330,7 +8315,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C426" s="2">
         <v>19.164760600000001</v>
@@ -8344,7 +8329,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C427" s="2">
         <v>19.353609200000001</v>
@@ -8358,7 +8343,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C428" s="2">
         <v>19.542290000000001</v>
@@ -8372,7 +8357,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C429" s="2">
         <v>19.543460799999998</v>
@@ -8386,7 +8371,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C430" s="2">
         <v>19.405449999999998</v>
@@ -8400,7 +8385,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C431" s="2">
         <v>19.549720000000001</v>
@@ -8414,7 +8399,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C432" s="2">
         <v>19.743080299999999</v>
@@ -8428,7 +8413,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C433" s="2">
         <v>19.561109399999999</v>
@@ -8442,7 +8427,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C434" s="2">
         <v>19.268270600000001</v>
@@ -8456,7 +8441,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C435" s="2">
         <v>19.729286399999999</v>
@@ -8470,7 +8455,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C436">
         <v>19.603729999999999</v>
@@ -8484,7 +8469,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C437" s="2">
         <v>19.59046455</v>
@@ -8498,7 +8483,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C438" s="2">
         <v>19.607009999999999</v>
@@ -8512,7 +8497,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C439" s="2">
         <v>19.162204750000001</v>
@@ -8526,7 +8511,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C440" s="2">
         <v>19.676480000000002</v>
@@ -8540,7 +8525,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C441" s="2">
         <v>19.5701103</v>
@@ -8554,7 +8539,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C442" s="2">
         <v>19.3018149</v>
@@ -8568,7 +8553,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C443" s="2">
         <v>19.296569699999999</v>
@@ -8582,7 +8567,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C444" s="2">
         <v>19.292529999999999</v>
@@ -8596,7 +8581,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C445" s="2">
         <v>19.287289000000001</v>
@@ -8610,7 +8595,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C446" s="2">
         <v>19.354252500000001</v>
@@ -8624,7 +8609,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C447">
         <v>19.129570000000001</v>
@@ -8638,7 +8623,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C448">
         <v>19.137515</v>
@@ -8652,7 +8637,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C449" s="2">
         <v>19.67229</v>
@@ -8666,7 +8651,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C450" s="2">
         <v>19.670359999999999</v>
@@ -8680,7 +8665,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C451" s="2">
         <v>19.314261500000001</v>
@@ -8694,7 +8679,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C452" s="2">
         <v>19.311131899999999</v>
@@ -8708,7 +8693,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C453" s="2">
         <v>19.169729199999999</v>
@@ -8722,7 +8707,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C454" s="2">
         <v>19.680530000000001</v>
@@ -8736,7 +8721,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C455" s="2">
         <v>19.577211699999999</v>
@@ -8750,7 +8735,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C456" s="2">
         <v>19.620705600000001</v>
@@ -8764,7 +8749,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C457" s="2">
         <v>19.661981000000001</v>
@@ -8778,7 +8763,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C458" s="2">
         <v>19.53331</v>
@@ -8792,7 +8777,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C459" s="2">
         <v>19.244755999999999</v>
@@ -8806,7 +8791,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C460">
         <v>19.300167559999998</v>
@@ -8820,7 +8805,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C461" s="2">
         <v>19.299359899999999</v>
@@ -8834,7 +8819,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C462" s="2">
         <v>19.648623799999999</v>
@@ -8848,7 +8833,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C463" s="2">
         <v>19.533439699999999</v>
@@ -8862,7 +8847,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C464" s="2">
         <v>19.63194609</v>
@@ -8871,12 +8856,12 @@
         <v>49.079843099999998</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>464</v>
       </c>
       <c r="B465" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C465">
         <v>19.428899999999999</v>
@@ -8885,12 +8870,12 @@
         <v>49.098030000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>465</v>
       </c>
       <c r="B466" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C466">
         <v>19.4345</v>
@@ -8899,12 +8884,12 @@
         <v>49.099899999999998</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>466</v>
       </c>
       <c r="B467" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C467">
         <v>19.73601</v>
@@ -8912,16 +8897,13 @@
       <c r="D467">
         <v>49.03642</v>
       </c>
-      <c r="E467" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>467</v>
       </c>
       <c r="B468" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C468">
         <v>19.601513000000001</v>
@@ -8930,12 +8912,12 @@
         <v>49.090913</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>468</v>
       </c>
       <c r="B469" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C469">
         <v>19.334060000000001</v>
@@ -8944,12 +8926,12 @@
         <v>49.03933</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>469</v>
       </c>
       <c r="B470" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C470">
         <v>19.261697000000002</v>
@@ -8958,32 +8940,32 @@
         <v>48.952778000000002</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>470</v>
       </c>
       <c r="B471" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C471">
-        <v>0</v>
+        <v>19.307527542114201</v>
       </c>
       <c r="D471">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49.083600906807199</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C472">
-        <v>0</v>
+        <v>19.607339501380899</v>
       </c>
       <c r="D472">
-        <v>0</v>
+        <v>49.091075238513099</v>
       </c>
     </row>
   </sheetData>
